--- a/templates/template.xlsx
+++ b/templates/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GIT CLONES\NII_EIAS\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FA8928-8CE1-4988-9317-EC416B40C861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77701B46-6A1E-4551-9760-8BBEF85A0E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="45">
   <si>
     <t>Название</t>
   </si>
@@ -127,13 +127,46 @@
   </si>
   <si>
     <t>Квартира</t>
+  </si>
+  <si>
+    <t>ООО РЭС</t>
+  </si>
+  <si>
+    <t>Тест на ковид</t>
+  </si>
+  <si>
+    <t>хуесистема</t>
+  </si>
+  <si>
+    <t>Карпушин</t>
+  </si>
+  <si>
+    <t>Егор</t>
+  </si>
+  <si>
+    <t>Юрьевич</t>
+  </si>
+  <si>
+    <t>mail@mail.ru</t>
+  </si>
+  <si>
+    <t>Паспорт РФ</t>
+  </si>
+  <si>
+    <t>hui</t>
+  </si>
+  <si>
+    <t>pizda</t>
+  </si>
+  <si>
+    <t>esho hui</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +181,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -284,11 +325,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -298,23 +354,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -593,15 +638,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AK53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
@@ -611,6 +657,7 @@
     <col min="10" max="10" width="18.140625" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.85546875" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
     <col min="21" max="21" width="7.85546875" customWidth="1"/>
@@ -621,165 +668,3597 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="1" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="1" t="s">
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="7" t="s">
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="3"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="9"/>
     </row>
     <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AB2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AC2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AD2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AF2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AG2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AH2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AI2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AK2" s="3" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>11111111</v>
+      </c>
+      <c r="C3" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D3">
+        <v>13001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H3" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q3">
+        <v>9248543666</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3">
+        <v>4412</v>
+      </c>
+      <c r="U3">
+        <v>294943</v>
+      </c>
+      <c r="V3">
+        <v>11111111111</v>
+      </c>
+      <c r="W3">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>11111111</v>
+      </c>
+      <c r="C4" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D4">
+        <v>13001</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H4" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q4">
+        <v>9248543666</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4">
+        <v>4412</v>
+      </c>
+      <c r="U4">
+        <v>294943</v>
+      </c>
+      <c r="V4">
+        <v>11111111111</v>
+      </c>
+      <c r="W4">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>11111111</v>
+      </c>
+      <c r="C5" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D5">
+        <v>13001</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H5" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q5">
+        <v>9248543666</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5">
+        <v>4412</v>
+      </c>
+      <c r="U5">
+        <v>294943</v>
+      </c>
+      <c r="V5">
+        <v>11111111111</v>
+      </c>
+      <c r="W5">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>11111111</v>
+      </c>
+      <c r="C6" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D6">
+        <v>13001</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H6" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q6">
+        <v>9248543666</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6">
+        <v>4412</v>
+      </c>
+      <c r="U6">
+        <v>294943</v>
+      </c>
+      <c r="V6">
+        <v>11111111111</v>
+      </c>
+      <c r="W6">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>11111111</v>
+      </c>
+      <c r="C7" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D7">
+        <v>13001</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H7" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q7">
+        <v>9248543666</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7">
+        <v>4412</v>
+      </c>
+      <c r="U7">
+        <v>294943</v>
+      </c>
+      <c r="V7">
+        <v>11111111111</v>
+      </c>
+      <c r="W7">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>11111111</v>
+      </c>
+      <c r="C8" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D8">
+        <v>13001</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H8" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q8">
+        <v>9248543666</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S8" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8">
+        <v>4412</v>
+      </c>
+      <c r="U8">
+        <v>294943</v>
+      </c>
+      <c r="V8">
+        <v>11111111111</v>
+      </c>
+      <c r="W8">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>11111111</v>
+      </c>
+      <c r="C9" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D9">
+        <v>13001</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H9" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q9">
+        <v>9248543666</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9">
+        <v>4412</v>
+      </c>
+      <c r="U9">
+        <v>294943</v>
+      </c>
+      <c r="V9">
+        <v>11111111111</v>
+      </c>
+      <c r="W9">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>11111111</v>
+      </c>
+      <c r="C10" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D10">
+        <v>13001</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H10" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q10">
+        <v>9248543666</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10">
+        <v>4412</v>
+      </c>
+      <c r="U10">
+        <v>294943</v>
+      </c>
+      <c r="V10">
+        <v>11111111111</v>
+      </c>
+      <c r="W10">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>11111111</v>
+      </c>
+      <c r="C11" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D11">
+        <v>13001</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H11" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q11">
+        <v>9248543666</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11">
+        <v>4412</v>
+      </c>
+      <c r="U11">
+        <v>294943</v>
+      </c>
+      <c r="V11">
+        <v>11111111111</v>
+      </c>
+      <c r="W11">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>11111111</v>
+      </c>
+      <c r="C12" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D12">
+        <v>13001</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H12" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q12">
+        <v>9248543666</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T12">
+        <v>4412</v>
+      </c>
+      <c r="U12">
+        <v>294943</v>
+      </c>
+      <c r="V12">
+        <v>11111111111</v>
+      </c>
+      <c r="W12">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>11111111</v>
+      </c>
+      <c r="C13" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D13">
+        <v>13001</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H13" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q13">
+        <v>9248543666</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S13" t="s">
+        <v>41</v>
+      </c>
+      <c r="T13">
+        <v>4412</v>
+      </c>
+      <c r="U13">
+        <v>294943</v>
+      </c>
+      <c r="V13">
+        <v>11111111111</v>
+      </c>
+      <c r="W13">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>11111111</v>
+      </c>
+      <c r="C14" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D14">
+        <v>13001</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H14" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q14">
+        <v>9248543666</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S14" t="s">
+        <v>41</v>
+      </c>
+      <c r="T14">
+        <v>4412</v>
+      </c>
+      <c r="U14">
+        <v>294943</v>
+      </c>
+      <c r="V14">
+        <v>11111111111</v>
+      </c>
+      <c r="W14">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>11111111</v>
+      </c>
+      <c r="C15" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D15">
+        <v>13001</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H15" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q15">
+        <v>9248543666</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" t="s">
+        <v>41</v>
+      </c>
+      <c r="T15">
+        <v>4412</v>
+      </c>
+      <c r="U15">
+        <v>294943</v>
+      </c>
+      <c r="V15">
+        <v>11111111111</v>
+      </c>
+      <c r="W15">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>11111111</v>
+      </c>
+      <c r="C16" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D16">
+        <v>13001</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H16" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q16">
+        <v>9248543666</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" t="s">
+        <v>41</v>
+      </c>
+      <c r="T16">
+        <v>4412</v>
+      </c>
+      <c r="U16">
+        <v>294943</v>
+      </c>
+      <c r="V16">
+        <v>11111111111</v>
+      </c>
+      <c r="W16">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>11111111</v>
+      </c>
+      <c r="C17" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D17">
+        <v>13001</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H17" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q17">
+        <v>9248543666</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S17" t="s">
+        <v>41</v>
+      </c>
+      <c r="T17">
+        <v>4412</v>
+      </c>
+      <c r="U17">
+        <v>294943</v>
+      </c>
+      <c r="V17">
+        <v>11111111111</v>
+      </c>
+      <c r="W17">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>11111111</v>
+      </c>
+      <c r="C18" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D18">
+        <v>13001</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H18" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q18">
+        <v>9248543666</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S18" t="s">
+        <v>41</v>
+      </c>
+      <c r="T18">
+        <v>4412</v>
+      </c>
+      <c r="U18">
+        <v>294943</v>
+      </c>
+      <c r="V18">
+        <v>11111111111</v>
+      </c>
+      <c r="W18">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>11111111</v>
+      </c>
+      <c r="C19" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D19">
+        <v>13001</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H19" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q19">
+        <v>9248543666</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S19" t="s">
+        <v>41</v>
+      </c>
+      <c r="T19">
+        <v>4412</v>
+      </c>
+      <c r="U19">
+        <v>294943</v>
+      </c>
+      <c r="V19">
+        <v>11111111111</v>
+      </c>
+      <c r="W19">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>11111111</v>
+      </c>
+      <c r="C20" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D20">
+        <v>13001</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H20" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q20">
+        <v>9248543666</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S20" t="s">
+        <v>41</v>
+      </c>
+      <c r="T20">
+        <v>4412</v>
+      </c>
+      <c r="U20">
+        <v>294943</v>
+      </c>
+      <c r="V20">
+        <v>11111111111</v>
+      </c>
+      <c r="W20">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>11111111</v>
+      </c>
+      <c r="C21" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D21">
+        <v>13001</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H21" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q21">
+        <v>9248543666</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21" t="s">
+        <v>41</v>
+      </c>
+      <c r="T21">
+        <v>4412</v>
+      </c>
+      <c r="U21">
+        <v>294943</v>
+      </c>
+      <c r="V21">
+        <v>11111111111</v>
+      </c>
+      <c r="W21">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>11111111</v>
+      </c>
+      <c r="C22" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D22">
+        <v>13001</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H22" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22" t="s">
+        <v>38</v>
+      </c>
+      <c r="N22" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q22">
+        <v>9248543666</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S22" t="s">
+        <v>41</v>
+      </c>
+      <c r="T22">
+        <v>4412</v>
+      </c>
+      <c r="U22">
+        <v>294943</v>
+      </c>
+      <c r="V22">
+        <v>11111111111</v>
+      </c>
+      <c r="W22">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>11111111</v>
+      </c>
+      <c r="C23" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D23">
+        <v>13001</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H23" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>37</v>
+      </c>
+      <c r="M23" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q23">
+        <v>9248543666</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S23" t="s">
+        <v>41</v>
+      </c>
+      <c r="T23">
+        <v>4412</v>
+      </c>
+      <c r="U23">
+        <v>294943</v>
+      </c>
+      <c r="V23">
+        <v>11111111111</v>
+      </c>
+      <c r="W23">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <v>11111111</v>
+      </c>
+      <c r="C24" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D24">
+        <v>13001</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H24" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q24">
+        <v>9248543666</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S24" t="s">
+        <v>41</v>
+      </c>
+      <c r="T24">
+        <v>4412</v>
+      </c>
+      <c r="U24">
+        <v>294943</v>
+      </c>
+      <c r="V24">
+        <v>11111111111</v>
+      </c>
+      <c r="W24">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>11111111</v>
+      </c>
+      <c r="C25" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D25">
+        <v>13001</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H25" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" t="s">
+        <v>38</v>
+      </c>
+      <c r="N25" t="s">
+        <v>39</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q25">
+        <v>9248543666</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S25" t="s">
+        <v>41</v>
+      </c>
+      <c r="T25">
+        <v>4412</v>
+      </c>
+      <c r="U25">
+        <v>294943</v>
+      </c>
+      <c r="V25">
+        <v>11111111111</v>
+      </c>
+      <c r="W25">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>11111111</v>
+      </c>
+      <c r="C26" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D26">
+        <v>13001</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H26" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" t="s">
+        <v>38</v>
+      </c>
+      <c r="N26" t="s">
+        <v>39</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q26">
+        <v>9248543666</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S26" t="s">
+        <v>41</v>
+      </c>
+      <c r="T26">
+        <v>4412</v>
+      </c>
+      <c r="U26">
+        <v>294943</v>
+      </c>
+      <c r="V26">
+        <v>11111111111</v>
+      </c>
+      <c r="W26">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>11111111</v>
+      </c>
+      <c r="C27" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D27">
+        <v>13001</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H27" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N27" t="s">
+        <v>39</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q27">
+        <v>9248543666</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S27" t="s">
+        <v>41</v>
+      </c>
+      <c r="T27">
+        <v>4412</v>
+      </c>
+      <c r="U27">
+        <v>294943</v>
+      </c>
+      <c r="V27">
+        <v>11111111111</v>
+      </c>
+      <c r="W27">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <v>11111111</v>
+      </c>
+      <c r="C28" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D28">
+        <v>13001</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H28" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28" t="s">
+        <v>38</v>
+      </c>
+      <c r="N28" t="s">
+        <v>39</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q28">
+        <v>9248543666</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S28" t="s">
+        <v>41</v>
+      </c>
+      <c r="T28">
+        <v>4412</v>
+      </c>
+      <c r="U28">
+        <v>294943</v>
+      </c>
+      <c r="V28">
+        <v>11111111111</v>
+      </c>
+      <c r="W28">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>11111111</v>
+      </c>
+      <c r="C29" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D29">
+        <v>13001</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H29" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>37</v>
+      </c>
+      <c r="M29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N29" t="s">
+        <v>39</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q29">
+        <v>9248543666</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S29" t="s">
+        <v>41</v>
+      </c>
+      <c r="T29">
+        <v>4412</v>
+      </c>
+      <c r="U29">
+        <v>294943</v>
+      </c>
+      <c r="V29">
+        <v>11111111111</v>
+      </c>
+      <c r="W29">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>11111111</v>
+      </c>
+      <c r="C30" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D30">
+        <v>13001</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H30" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>37</v>
+      </c>
+      <c r="M30" t="s">
+        <v>38</v>
+      </c>
+      <c r="N30" t="s">
+        <v>39</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q30">
+        <v>9248543666</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S30" t="s">
+        <v>41</v>
+      </c>
+      <c r="T30">
+        <v>4412</v>
+      </c>
+      <c r="U30">
+        <v>294943</v>
+      </c>
+      <c r="V30">
+        <v>11111111111</v>
+      </c>
+      <c r="W30">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>11111111</v>
+      </c>
+      <c r="C31" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D31">
+        <v>13001</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H31" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" t="s">
+        <v>38</v>
+      </c>
+      <c r="N31" t="s">
+        <v>39</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q31">
+        <v>9248543666</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S31" t="s">
+        <v>41</v>
+      </c>
+      <c r="T31">
+        <v>4412</v>
+      </c>
+      <c r="U31">
+        <v>294943</v>
+      </c>
+      <c r="V31">
+        <v>11111111111</v>
+      </c>
+      <c r="W31">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>11111111</v>
+      </c>
+      <c r="C32" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D32">
+        <v>13001</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H32" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>37</v>
+      </c>
+      <c r="M32" t="s">
+        <v>38</v>
+      </c>
+      <c r="N32" t="s">
+        <v>39</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q32">
+        <v>9248543666</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S32" t="s">
+        <v>41</v>
+      </c>
+      <c r="T32">
+        <v>4412</v>
+      </c>
+      <c r="U32">
+        <v>294943</v>
+      </c>
+      <c r="V32">
+        <v>11111111111</v>
+      </c>
+      <c r="W32">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>11111111</v>
+      </c>
+      <c r="C33" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D33">
+        <v>13001</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H33" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>37</v>
+      </c>
+      <c r="M33" t="s">
+        <v>38</v>
+      </c>
+      <c r="N33" t="s">
+        <v>39</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q33">
+        <v>9248543666</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S33" t="s">
+        <v>41</v>
+      </c>
+      <c r="T33">
+        <v>4412</v>
+      </c>
+      <c r="U33">
+        <v>294943</v>
+      </c>
+      <c r="V33">
+        <v>11111111111</v>
+      </c>
+      <c r="W33">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>11111111</v>
+      </c>
+      <c r="C34" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D34">
+        <v>13001</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H34" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>37</v>
+      </c>
+      <c r="M34" t="s">
+        <v>38</v>
+      </c>
+      <c r="N34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q34">
+        <v>9248543666</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S34" t="s">
+        <v>41</v>
+      </c>
+      <c r="T34">
+        <v>4412</v>
+      </c>
+      <c r="U34">
+        <v>294943</v>
+      </c>
+      <c r="V34">
+        <v>11111111111</v>
+      </c>
+      <c r="W34">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>11111111</v>
+      </c>
+      <c r="C35" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D35">
+        <v>13001</v>
+      </c>
+      <c r="E35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H35" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>37</v>
+      </c>
+      <c r="M35" t="s">
+        <v>38</v>
+      </c>
+      <c r="N35" t="s">
+        <v>39</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q35">
+        <v>9248543666</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S35" t="s">
+        <v>41</v>
+      </c>
+      <c r="T35">
+        <v>4412</v>
+      </c>
+      <c r="U35">
+        <v>294943</v>
+      </c>
+      <c r="V35">
+        <v>11111111111</v>
+      </c>
+      <c r="W35">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>11111111</v>
+      </c>
+      <c r="C36" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D36">
+        <v>13001</v>
+      </c>
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H36" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>37</v>
+      </c>
+      <c r="M36" t="s">
+        <v>38</v>
+      </c>
+      <c r="N36" t="s">
+        <v>39</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q36">
+        <v>9248543666</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S36" t="s">
+        <v>41</v>
+      </c>
+      <c r="T36">
+        <v>4412</v>
+      </c>
+      <c r="U36">
+        <v>294943</v>
+      </c>
+      <c r="V36">
+        <v>11111111111</v>
+      </c>
+      <c r="W36">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>11111111</v>
+      </c>
+      <c r="C37" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D37">
+        <v>13001</v>
+      </c>
+      <c r="E37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H37" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>37</v>
+      </c>
+      <c r="M37" t="s">
+        <v>38</v>
+      </c>
+      <c r="N37" t="s">
+        <v>39</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q37">
+        <v>9248543666</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S37" t="s">
+        <v>41</v>
+      </c>
+      <c r="T37">
+        <v>4412</v>
+      </c>
+      <c r="U37">
+        <v>294943</v>
+      </c>
+      <c r="V37">
+        <v>11111111111</v>
+      </c>
+      <c r="W37">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>11111111</v>
+      </c>
+      <c r="C38" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D38">
+        <v>13001</v>
+      </c>
+      <c r="E38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H38" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>37</v>
+      </c>
+      <c r="M38" t="s">
+        <v>38</v>
+      </c>
+      <c r="N38" t="s">
+        <v>39</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q38">
+        <v>9248543666</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S38" t="s">
+        <v>41</v>
+      </c>
+      <c r="T38">
+        <v>4412</v>
+      </c>
+      <c r="U38">
+        <v>294943</v>
+      </c>
+      <c r="V38">
+        <v>11111111111</v>
+      </c>
+      <c r="W38">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39">
+        <v>11111111</v>
+      </c>
+      <c r="C39" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D39">
+        <v>13001</v>
+      </c>
+      <c r="E39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H39" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>37</v>
+      </c>
+      <c r="M39" t="s">
+        <v>38</v>
+      </c>
+      <c r="N39" t="s">
+        <v>39</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q39">
+        <v>9248543666</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S39" t="s">
+        <v>41</v>
+      </c>
+      <c r="T39">
+        <v>4412</v>
+      </c>
+      <c r="U39">
+        <v>294943</v>
+      </c>
+      <c r="V39">
+        <v>11111111111</v>
+      </c>
+      <c r="W39">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40">
+        <v>11111111</v>
+      </c>
+      <c r="C40" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D40">
+        <v>13001</v>
+      </c>
+      <c r="E40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H40" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>37</v>
+      </c>
+      <c r="M40" t="s">
+        <v>38</v>
+      </c>
+      <c r="N40" t="s">
+        <v>39</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q40">
+        <v>9248543666</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S40" t="s">
+        <v>41</v>
+      </c>
+      <c r="T40">
+        <v>4412</v>
+      </c>
+      <c r="U40">
+        <v>294943</v>
+      </c>
+      <c r="V40">
+        <v>11111111111</v>
+      </c>
+      <c r="W40">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41">
+        <v>11111111</v>
+      </c>
+      <c r="C41" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D41">
+        <v>13001</v>
+      </c>
+      <c r="E41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H41" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>37</v>
+      </c>
+      <c r="M41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N41" t="s">
+        <v>39</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q41">
+        <v>9248543666</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S41" t="s">
+        <v>41</v>
+      </c>
+      <c r="T41">
+        <v>4412</v>
+      </c>
+      <c r="U41">
+        <v>294943</v>
+      </c>
+      <c r="V41">
+        <v>11111111111</v>
+      </c>
+      <c r="W41">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42">
+        <v>11111111</v>
+      </c>
+      <c r="C42" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D42">
+        <v>13001</v>
+      </c>
+      <c r="E42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H42" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>37</v>
+      </c>
+      <c r="M42" t="s">
+        <v>38</v>
+      </c>
+      <c r="N42" t="s">
+        <v>39</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q42">
+        <v>9248543666</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S42" t="s">
+        <v>41</v>
+      </c>
+      <c r="T42">
+        <v>4412</v>
+      </c>
+      <c r="U42">
+        <v>294943</v>
+      </c>
+      <c r="V42">
+        <v>11111111111</v>
+      </c>
+      <c r="W42">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43">
+        <v>11111111</v>
+      </c>
+      <c r="C43" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D43">
+        <v>13001</v>
+      </c>
+      <c r="E43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H43" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>37</v>
+      </c>
+      <c r="M43" t="s">
+        <v>38</v>
+      </c>
+      <c r="N43" t="s">
+        <v>39</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q43">
+        <v>9248543666</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S43" t="s">
+        <v>41</v>
+      </c>
+      <c r="T43">
+        <v>4412</v>
+      </c>
+      <c r="U43">
+        <v>294943</v>
+      </c>
+      <c r="V43">
+        <v>11111111111</v>
+      </c>
+      <c r="W43">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44">
+        <v>11111111</v>
+      </c>
+      <c r="C44" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D44">
+        <v>13001</v>
+      </c>
+      <c r="E44" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H44" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>37</v>
+      </c>
+      <c r="M44" t="s">
+        <v>38</v>
+      </c>
+      <c r="N44" t="s">
+        <v>39</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q44">
+        <v>9248543666</v>
+      </c>
+      <c r="R44" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S44" t="s">
+        <v>41</v>
+      </c>
+      <c r="T44">
+        <v>4412</v>
+      </c>
+      <c r="U44">
+        <v>294943</v>
+      </c>
+      <c r="V44">
+        <v>11111111111</v>
+      </c>
+      <c r="W44">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45">
+        <v>11111111</v>
+      </c>
+      <c r="C45" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D45">
+        <v>13001</v>
+      </c>
+      <c r="E45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H45" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>37</v>
+      </c>
+      <c r="M45" t="s">
+        <v>38</v>
+      </c>
+      <c r="N45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q45">
+        <v>9248543666</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S45" t="s">
+        <v>41</v>
+      </c>
+      <c r="T45">
+        <v>4412</v>
+      </c>
+      <c r="U45">
+        <v>294943</v>
+      </c>
+      <c r="V45">
+        <v>11111111111</v>
+      </c>
+      <c r="W45">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46">
+        <v>11111111</v>
+      </c>
+      <c r="C46" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D46">
+        <v>13001</v>
+      </c>
+      <c r="E46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H46" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
+        <v>37</v>
+      </c>
+      <c r="M46" t="s">
+        <v>38</v>
+      </c>
+      <c r="N46" t="s">
+        <v>39</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q46">
+        <v>9248543666</v>
+      </c>
+      <c r="R46" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S46" t="s">
+        <v>41</v>
+      </c>
+      <c r="T46">
+        <v>4412</v>
+      </c>
+      <c r="U46">
+        <v>294943</v>
+      </c>
+      <c r="V46">
+        <v>11111111111</v>
+      </c>
+      <c r="W46">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47">
+        <v>11111111</v>
+      </c>
+      <c r="C47" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D47">
+        <v>13001</v>
+      </c>
+      <c r="E47" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H47" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
+        <v>37</v>
+      </c>
+      <c r="M47" t="s">
+        <v>38</v>
+      </c>
+      <c r="N47" t="s">
+        <v>39</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q47">
+        <v>9248543666</v>
+      </c>
+      <c r="R47" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S47" t="s">
+        <v>41</v>
+      </c>
+      <c r="T47">
+        <v>4412</v>
+      </c>
+      <c r="U47">
+        <v>294943</v>
+      </c>
+      <c r="V47">
+        <v>11111111111</v>
+      </c>
+      <c r="W47">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48">
+        <v>11111111</v>
+      </c>
+      <c r="C48" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D48">
+        <v>13001</v>
+      </c>
+      <c r="E48" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H48" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>37</v>
+      </c>
+      <c r="M48" t="s">
+        <v>38</v>
+      </c>
+      <c r="N48" t="s">
+        <v>39</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q48">
+        <v>9248543666</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S48" t="s">
+        <v>41</v>
+      </c>
+      <c r="T48">
+        <v>4412</v>
+      </c>
+      <c r="U48">
+        <v>294943</v>
+      </c>
+      <c r="V48">
+        <v>11111111111</v>
+      </c>
+      <c r="W48">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49">
+        <v>11111111</v>
+      </c>
+      <c r="C49" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D49">
+        <v>13001</v>
+      </c>
+      <c r="E49" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H49" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="L49" t="s">
+        <v>37</v>
+      </c>
+      <c r="M49" t="s">
+        <v>38</v>
+      </c>
+      <c r="N49" t="s">
+        <v>39</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q49">
+        <v>9248543666</v>
+      </c>
+      <c r="R49" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S49" t="s">
+        <v>41</v>
+      </c>
+      <c r="T49">
+        <v>4412</v>
+      </c>
+      <c r="U49">
+        <v>294943</v>
+      </c>
+      <c r="V49">
+        <v>11111111111</v>
+      </c>
+      <c r="W49">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50">
+        <v>11111111</v>
+      </c>
+      <c r="C50" s="5">
+        <v>44414</v>
+      </c>
+      <c r="D50">
+        <v>13001</v>
+      </c>
+      <c r="E50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50" s="5">
+        <v>44414</v>
+      </c>
+      <c r="H50" s="5">
+        <v>44414</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
+        <v>37</v>
+      </c>
+      <c r="M50" t="s">
+        <v>38</v>
+      </c>
+      <c r="N50" t="s">
+        <v>39</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50" s="5">
+        <v>33908</v>
+      </c>
+      <c r="Q50">
+        <v>9248543666</v>
+      </c>
+      <c r="R50" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S50" t="s">
+        <v>41</v>
+      </c>
+      <c r="T50">
+        <v>4412</v>
+      </c>
+      <c r="U50">
+        <v>294943</v>
+      </c>
+      <c r="V50">
+        <v>11111111111</v>
+      </c>
+      <c r="W50">
+        <v>1111111111111110</v>
+      </c>
+      <c r="AK50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK53">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -790,7 +4269,57 @@
     <mergeCell ref="X1:AD1"/>
     <mergeCell ref="AE1:AK1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="R3" r:id="rId1" xr:uid="{989F91F0-DA49-42C8-9132-DDDEDFD1178D}"/>
+    <hyperlink ref="R4" r:id="rId2" xr:uid="{17FCF68B-1CAA-45E9-900D-A5D0C60DB392}"/>
+    <hyperlink ref="R5" r:id="rId3" xr:uid="{5FEC8DAD-C0F1-4C84-A674-CD1E6763BD8D}"/>
+    <hyperlink ref="R6" r:id="rId4" xr:uid="{EF7F198B-2245-482D-B2E9-35B3BC8E2A31}"/>
+    <hyperlink ref="R7" r:id="rId5" xr:uid="{FB98E1EB-2D93-4C8C-ACED-6DDC25B0F528}"/>
+    <hyperlink ref="R8" r:id="rId6" xr:uid="{92F2ECEA-9896-49D4-B493-4CDBC6ADA05D}"/>
+    <hyperlink ref="R9" r:id="rId7" xr:uid="{5DBC48EF-CDDF-4330-8374-FD4DD5C95BC7}"/>
+    <hyperlink ref="R10" r:id="rId8" xr:uid="{F9637623-5B2F-4C10-AA15-632033CB1BC6}"/>
+    <hyperlink ref="R11" r:id="rId9" xr:uid="{B2CD76AC-458E-4B3A-A1E1-02DE04560B6F}"/>
+    <hyperlink ref="R12" r:id="rId10" xr:uid="{A4BF08C4-72A3-415C-8DCE-B99039C95C48}"/>
+    <hyperlink ref="R13" r:id="rId11" xr:uid="{D36B98D7-5A9A-4912-8BAE-0AF345C5D237}"/>
+    <hyperlink ref="R14" r:id="rId12" xr:uid="{2E5E7E70-C8A5-4E47-A1E1-1F41AF39E85B}"/>
+    <hyperlink ref="R15" r:id="rId13" xr:uid="{BBA0623C-5E29-4FEA-B48A-53CF4F1EC910}"/>
+    <hyperlink ref="R16" r:id="rId14" xr:uid="{B691199D-1D34-4C8D-968A-E38B648C9CAB}"/>
+    <hyperlink ref="R17" r:id="rId15" xr:uid="{95DD925E-A355-456B-B547-AA55D6E756EA}"/>
+    <hyperlink ref="R18" r:id="rId16" xr:uid="{470D05D0-EF9A-4563-9215-76463AF86AFF}"/>
+    <hyperlink ref="R19" r:id="rId17" xr:uid="{D20731BD-8ACB-486B-A73F-9A03BCB5873D}"/>
+    <hyperlink ref="R20" r:id="rId18" xr:uid="{4515C416-2716-44DB-9377-545DC4B85E69}"/>
+    <hyperlink ref="R21" r:id="rId19" xr:uid="{107D6DA4-2032-495E-BA3D-48ACD6C4AD92}"/>
+    <hyperlink ref="R22" r:id="rId20" xr:uid="{A4773F1C-119D-440E-BABC-9D57859795B2}"/>
+    <hyperlink ref="R23" r:id="rId21" xr:uid="{98177452-C941-4CAB-ABA6-82BF917B71A8}"/>
+    <hyperlink ref="R24" r:id="rId22" xr:uid="{CC0CAA52-B599-45CF-B058-47C6B2FAE4C4}"/>
+    <hyperlink ref="R25" r:id="rId23" xr:uid="{E033460B-7842-4232-946F-841193DA4390}"/>
+    <hyperlink ref="R26" r:id="rId24" xr:uid="{1AC5EFF9-32B0-4E2A-9C1B-0EB7F24F4F60}"/>
+    <hyperlink ref="R27" r:id="rId25" xr:uid="{C44D0C44-A7A8-4BCE-9F12-A46D37FF58AA}"/>
+    <hyperlink ref="R28" r:id="rId26" xr:uid="{80ABADD1-830B-4B87-A029-567F10E30E0C}"/>
+    <hyperlink ref="R29" r:id="rId27" xr:uid="{FB1ADDF1-1CF2-4526-B5EB-AF8B4541B4EF}"/>
+    <hyperlink ref="R30" r:id="rId28" xr:uid="{5355FD49-8F6A-4A9C-819A-5DC0FBD62FF8}"/>
+    <hyperlink ref="R31" r:id="rId29" xr:uid="{2715A638-48FD-4C95-BE71-D7E78F2822F8}"/>
+    <hyperlink ref="R32" r:id="rId30" xr:uid="{A0A6D2D4-B8A9-4885-BA80-CD96A363FF49}"/>
+    <hyperlink ref="R33" r:id="rId31" xr:uid="{8C530CE5-CD06-41F3-A290-997F4A06A5F4}"/>
+    <hyperlink ref="R34" r:id="rId32" xr:uid="{ADEB6A95-4980-41D2-915E-8CCE3A322BE8}"/>
+    <hyperlink ref="R35" r:id="rId33" xr:uid="{9E1056C3-6956-46BD-A7EF-52C6DD1159E2}"/>
+    <hyperlink ref="R36" r:id="rId34" xr:uid="{B34AEC99-A82B-4074-BFD6-6F7FC5DC6899}"/>
+    <hyperlink ref="R37" r:id="rId35" xr:uid="{2D2E9EEC-A46B-47AD-826E-33FE3BBE9E4C}"/>
+    <hyperlink ref="R38" r:id="rId36" xr:uid="{58B90DED-9B44-4FBE-9431-D52AF0C74199}"/>
+    <hyperlink ref="R39" r:id="rId37" xr:uid="{079084BD-AB40-4DAD-9E98-E3D1E1E0C508}"/>
+    <hyperlink ref="R40" r:id="rId38" xr:uid="{96C448F5-2193-45A6-89CF-BCD23706C2EF}"/>
+    <hyperlink ref="R41" r:id="rId39" xr:uid="{5F808492-0DE8-4824-9551-48A7728EC372}"/>
+    <hyperlink ref="R42" r:id="rId40" xr:uid="{04C818BF-6DFD-41E5-9114-822C921BEE4F}"/>
+    <hyperlink ref="R43" r:id="rId41" xr:uid="{7F2740E9-92E5-40E0-BF82-A9E758E00401}"/>
+    <hyperlink ref="R44" r:id="rId42" xr:uid="{1A3A3360-CBE5-49D5-A13A-90E388D885EA}"/>
+    <hyperlink ref="R45" r:id="rId43" xr:uid="{FF4D8CD7-B8BE-42FA-82E2-13A02DABB5EC}"/>
+    <hyperlink ref="R46" r:id="rId44" xr:uid="{702B9142-7697-43BB-974B-97FF5023678A}"/>
+    <hyperlink ref="R47" r:id="rId45" xr:uid="{837815EE-C87B-4355-A427-C1E37520C4E8}"/>
+    <hyperlink ref="R48" r:id="rId46" xr:uid="{75EA459E-ABB7-41DE-8AD6-0A541399E47B}"/>
+    <hyperlink ref="R49" r:id="rId47" xr:uid="{AFF30C42-366B-4D4B-A41F-1D332FFE5169}"/>
+    <hyperlink ref="R50" r:id="rId48" xr:uid="{E2289ADB-885F-4ACE-A47B-BA4D50C23BB2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId49"/>
 </worksheet>
 </file>
--- a/templates/template.xlsx
+++ b/templates/template.xlsx
@@ -8,13 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GIT CLONES\NII_EIAS\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77701B46-6A1E-4551-9760-8BBEF85A0E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB5F1E7-C6B1-4828-9DDF-5E7563E42BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1155" yWindow="6045" windowWidth="2400" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="documentType">Лист2!$G$1:$G$6</definedName>
+    <definedName name="result">Лист2!$A$1:$A$4</definedName>
+    <definedName name="sex">Лист2!$E$1:$E$2</definedName>
+    <definedName name="type">Лист2!$C$1:$C$4</definedName>
+    <definedName name="Результат">Лист1!$I$3:$I$6</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="55">
   <si>
     <t>Название</t>
   </si>
@@ -150,28 +158,66 @@
     <t>mail@mail.ru</t>
   </si>
   <si>
-    <t>Паспорт РФ</t>
+    <t>0 - не обнаружено</t>
   </si>
   <si>
-    <t>hui</t>
+    <t>1 - обнаружено</t>
   </si>
   <si>
-    <t>pizda</t>
+    <t>2 - сомнительно</t>
   </si>
   <si>
-    <t>esho hui</t>
+    <t>3 - брак</t>
+  </si>
+  <si>
+    <t>1 - ПЦР COVID, качественное</t>
+  </si>
+  <si>
+    <t>2 - Антитела COVID, качественное IgG</t>
+  </si>
+  <si>
+    <t>3 - Антитела COVID, качественное IgM</t>
+  </si>
+  <si>
+    <t>4 - Антитела COVID, суммарное значение IgG и IgM</t>
+  </si>
+  <si>
+    <t>Паспорт гражданина РФ</t>
+  </si>
+  <si>
+    <t>Свидетельство о рождении</t>
+  </si>
+  <si>
+    <t>Вид на жительство</t>
+  </si>
+  <si>
+    <t>Заграничный паспорт</t>
+  </si>
+  <si>
+    <t>Паспорт иностр. гражданина</t>
+  </si>
+  <si>
+    <t>Иной документ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,6 +233,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -327,36 +379,39 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -638,31 +693,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK53"/>
+  <dimension ref="A1:AK50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="38.140625" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.85546875" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="19" max="19" width="23.42578125" customWidth="1"/>
     <col min="21" max="21" width="7.85546875" customWidth="1"/>
-    <col min="22" max="22" width="8.5703125" customWidth="1"/>
-    <col min="23" max="23" width="11.5703125" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" customWidth="1"/>
     <col min="29" max="29" width="10.42578125" customWidth="1"/>
     <col min="36" max="36" width="10" customWidth="1"/>
   </cols>
@@ -787,25 +844,25 @@
         <v>24</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AE2" s="4" t="s">
         <v>27</v>
@@ -834,10 +891,10 @@
         <v>34</v>
       </c>
       <c r="B3">
-        <v>11111111</v>
+        <v>1111111111111</v>
       </c>
       <c r="C3" s="5">
-        <v>44414</v>
+        <v>44208</v>
       </c>
       <c r="D3">
         <v>13001</v>
@@ -854,12 +911,13 @@
       <c r="H3" s="5">
         <v>44414</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="11"/>
       <c r="L3" t="s">
         <v>37</v>
       </c>
@@ -882,7 +940,7 @@
         <v>40</v>
       </c>
       <c r="S3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T3">
         <v>4412</v>
@@ -890,14 +948,53 @@
       <c r="U3">
         <v>294943</v>
       </c>
-      <c r="V3">
-        <v>11111111111</v>
+      <c r="V3" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W3">
         <v>1111111111111110</v>
       </c>
-      <c r="AK3">
-        <v>1</v>
+      <c r="X3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
@@ -905,13 +1002,13 @@
         <v>34</v>
       </c>
       <c r="B4">
-        <v>11111111</v>
+        <v>1111111111112</v>
       </c>
       <c r="C4" s="5">
-        <v>44414</v>
+        <v>44209</v>
       </c>
       <c r="D4">
-        <v>13001</v>
+        <v>13002</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>
@@ -925,12 +1022,13 @@
       <c r="H4" s="5">
         <v>44414</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="11"/>
       <c r="L4" t="s">
         <v>37</v>
       </c>
@@ -944,16 +1042,16 @@
         <v>1</v>
       </c>
       <c r="P4" s="5">
-        <v>33908</v>
+        <v>33909</v>
       </c>
       <c r="Q4">
-        <v>9248543666</v>
+        <v>9248543667</v>
       </c>
       <c r="R4" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T4">
         <v>4412</v>
@@ -961,14 +1059,53 @@
       <c r="U4">
         <v>294943</v>
       </c>
-      <c r="V4">
-        <v>11111111111</v>
+      <c r="V4" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W4">
         <v>1111111111111110</v>
       </c>
-      <c r="AK4">
-        <v>2</v>
+      <c r="X4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
@@ -976,13 +1113,13 @@
         <v>34</v>
       </c>
       <c r="B5">
-        <v>11111111</v>
+        <v>1111111111113</v>
       </c>
       <c r="C5" s="5">
-        <v>44414</v>
+        <v>44210</v>
       </c>
       <c r="D5">
-        <v>13001</v>
+        <v>13003</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
@@ -996,12 +1133,13 @@
       <c r="H5" s="5">
         <v>44414</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="11"/>
       <c r="L5" t="s">
         <v>37</v>
       </c>
@@ -1015,16 +1153,16 @@
         <v>1</v>
       </c>
       <c r="P5" s="5">
-        <v>33908</v>
+        <v>33910</v>
       </c>
       <c r="Q5">
-        <v>9248543666</v>
+        <v>9248543668</v>
       </c>
       <c r="R5" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T5">
         <v>4412</v>
@@ -1032,14 +1170,53 @@
       <c r="U5">
         <v>294943</v>
       </c>
-      <c r="V5">
-        <v>11111111111</v>
+      <c r="V5" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W5">
         <v>1111111111111110</v>
       </c>
-      <c r="AK5">
-        <v>3</v>
+      <c r="X5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -1047,13 +1224,13 @@
         <v>34</v>
       </c>
       <c r="B6">
-        <v>11111111</v>
+        <v>1111111111114</v>
       </c>
       <c r="C6" s="5">
-        <v>44414</v>
+        <v>44211</v>
       </c>
       <c r="D6">
-        <v>13001</v>
+        <v>13004</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
@@ -1067,12 +1244,13 @@
       <c r="H6" s="5">
         <v>44414</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="11"/>
       <c r="L6" t="s">
         <v>37</v>
       </c>
@@ -1086,16 +1264,16 @@
         <v>1</v>
       </c>
       <c r="P6" s="5">
-        <v>33908</v>
+        <v>33911</v>
       </c>
       <c r="Q6">
-        <v>9248543666</v>
+        <v>9248543669</v>
       </c>
       <c r="R6" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T6">
         <v>4412</v>
@@ -1103,14 +1281,53 @@
       <c r="U6">
         <v>294943</v>
       </c>
-      <c r="V6">
-        <v>11111111111</v>
+      <c r="V6" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W6">
         <v>1111111111111110</v>
       </c>
-      <c r="AK6">
-        <v>4</v>
+      <c r="X6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -1118,13 +1335,13 @@
         <v>34</v>
       </c>
       <c r="B7">
-        <v>11111111</v>
+        <v>1111111111115</v>
       </c>
       <c r="C7" s="5">
-        <v>44414</v>
+        <v>44212</v>
       </c>
       <c r="D7">
-        <v>13001</v>
+        <v>13005</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
@@ -1138,12 +1355,13 @@
       <c r="H7" s="5">
         <v>44414</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="11"/>
       <c r="L7" t="s">
         <v>37</v>
       </c>
@@ -1157,16 +1375,16 @@
         <v>1</v>
       </c>
       <c r="P7" s="5">
-        <v>33908</v>
+        <v>33912</v>
       </c>
       <c r="Q7">
-        <v>9248543666</v>
+        <v>9248543670</v>
       </c>
       <c r="R7" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T7">
         <v>4412</v>
@@ -1174,14 +1392,53 @@
       <c r="U7">
         <v>294943</v>
       </c>
-      <c r="V7">
-        <v>11111111111</v>
+      <c r="V7" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W7">
         <v>1111111111111110</v>
       </c>
-      <c r="AK7">
-        <v>5</v>
+      <c r="X7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
@@ -1189,13 +1446,13 @@
         <v>34</v>
       </c>
       <c r="B8">
-        <v>11111111</v>
+        <v>1111111111116</v>
       </c>
       <c r="C8" s="5">
-        <v>44414</v>
+        <v>44213</v>
       </c>
       <c r="D8">
-        <v>13001</v>
+        <v>13006</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
@@ -1209,12 +1466,13 @@
       <c r="H8" s="5">
         <v>44414</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="11"/>
       <c r="L8" t="s">
         <v>37</v>
       </c>
@@ -1228,16 +1486,16 @@
         <v>1</v>
       </c>
       <c r="P8" s="5">
-        <v>33908</v>
+        <v>33913</v>
       </c>
       <c r="Q8">
-        <v>9248543666</v>
+        <v>9248543671</v>
       </c>
       <c r="R8" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S8" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T8">
         <v>4412</v>
@@ -1245,14 +1503,53 @@
       <c r="U8">
         <v>294943</v>
       </c>
-      <c r="V8">
-        <v>11111111111</v>
+      <c r="V8" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W8">
         <v>1111111111111110</v>
       </c>
-      <c r="AK8">
-        <v>6</v>
+      <c r="X8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
@@ -1260,13 +1557,13 @@
         <v>34</v>
       </c>
       <c r="B9">
-        <v>11111111</v>
+        <v>1111111111117</v>
       </c>
       <c r="C9" s="5">
-        <v>44414</v>
+        <v>44214</v>
       </c>
       <c r="D9">
-        <v>13001</v>
+        <v>13007</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
@@ -1280,12 +1577,13 @@
       <c r="H9" s="5">
         <v>44414</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="11"/>
       <c r="L9" t="s">
         <v>37</v>
       </c>
@@ -1299,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="P9" s="5">
-        <v>33908</v>
+        <v>33914</v>
       </c>
       <c r="Q9">
-        <v>9248543666</v>
+        <v>9248543672</v>
       </c>
       <c r="R9" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T9">
         <v>4412</v>
@@ -1316,14 +1614,53 @@
       <c r="U9">
         <v>294943</v>
       </c>
-      <c r="V9">
-        <v>11111111111</v>
+      <c r="V9" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W9">
         <v>1111111111111110</v>
       </c>
-      <c r="AK9">
-        <v>7</v>
+      <c r="X9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
@@ -1331,13 +1668,13 @@
         <v>34</v>
       </c>
       <c r="B10">
-        <v>11111111</v>
+        <v>1111111111118</v>
       </c>
       <c r="C10" s="5">
-        <v>44414</v>
+        <v>44215</v>
       </c>
       <c r="D10">
-        <v>13001</v>
+        <v>13008</v>
       </c>
       <c r="E10" t="s">
         <v>35</v>
@@ -1351,12 +1688,13 @@
       <c r="H10" s="5">
         <v>44414</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="11"/>
       <c r="L10" t="s">
         <v>37</v>
       </c>
@@ -1370,16 +1708,16 @@
         <v>1</v>
       </c>
       <c r="P10" s="5">
-        <v>33908</v>
+        <v>33915</v>
       </c>
       <c r="Q10">
-        <v>9248543666</v>
+        <v>9248543673</v>
       </c>
       <c r="R10" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T10">
         <v>4412</v>
@@ -1387,14 +1725,53 @@
       <c r="U10">
         <v>294943</v>
       </c>
-      <c r="V10">
-        <v>11111111111</v>
+      <c r="V10" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W10">
         <v>1111111111111110</v>
       </c>
-      <c r="AK10">
-        <v>8</v>
+      <c r="X10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -1402,13 +1779,13 @@
         <v>34</v>
       </c>
       <c r="B11">
-        <v>11111111</v>
+        <v>1111111111119</v>
       </c>
       <c r="C11" s="5">
-        <v>44414</v>
+        <v>44216</v>
       </c>
       <c r="D11">
-        <v>13001</v>
+        <v>13009</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>
@@ -1422,12 +1799,13 @@
       <c r="H11" s="5">
         <v>44414</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="11"/>
       <c r="L11" t="s">
         <v>37</v>
       </c>
@@ -1441,16 +1819,16 @@
         <v>1</v>
       </c>
       <c r="P11" s="5">
-        <v>33908</v>
+        <v>33916</v>
       </c>
       <c r="Q11">
-        <v>9248543666</v>
+        <v>9248543674</v>
       </c>
       <c r="R11" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S11" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T11">
         <v>4412</v>
@@ -1458,14 +1836,53 @@
       <c r="U11">
         <v>294943</v>
       </c>
-      <c r="V11">
-        <v>11111111111</v>
+      <c r="V11" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W11">
         <v>1111111111111110</v>
       </c>
-      <c r="AK11">
-        <v>9</v>
+      <c r="X11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -1473,13 +1890,13 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>11111111</v>
+        <v>1111111111120</v>
       </c>
       <c r="C12" s="5">
-        <v>44414</v>
+        <v>44217</v>
       </c>
       <c r="D12">
-        <v>13001</v>
+        <v>13010</v>
       </c>
       <c r="E12" t="s">
         <v>35</v>
@@ -1493,12 +1910,13 @@
       <c r="H12" s="5">
         <v>44414</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="11"/>
       <c r="L12" t="s">
         <v>37</v>
       </c>
@@ -1512,16 +1930,16 @@
         <v>1</v>
       </c>
       <c r="P12" s="5">
-        <v>33908</v>
+        <v>33917</v>
       </c>
       <c r="Q12">
-        <v>9248543666</v>
+        <v>9248543675</v>
       </c>
       <c r="R12" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T12">
         <v>4412</v>
@@ -1529,14 +1947,53 @@
       <c r="U12">
         <v>294943</v>
       </c>
-      <c r="V12">
-        <v>11111111111</v>
+      <c r="V12" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W12">
         <v>1111111111111110</v>
       </c>
-      <c r="AK12">
-        <v>10</v>
+      <c r="X12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
@@ -1544,13 +2001,13 @@
         <v>34</v>
       </c>
       <c r="B13">
-        <v>11111111</v>
+        <v>1111111111121</v>
       </c>
       <c r="C13" s="5">
-        <v>44414</v>
+        <v>44218</v>
       </c>
       <c r="D13">
-        <v>13001</v>
+        <v>13011</v>
       </c>
       <c r="E13" t="s">
         <v>35</v>
@@ -1564,12 +2021,13 @@
       <c r="H13" s="5">
         <v>44414</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="11"/>
       <c r="L13" t="s">
         <v>37</v>
       </c>
@@ -1583,16 +2041,16 @@
         <v>1</v>
       </c>
       <c r="P13" s="5">
-        <v>33908</v>
+        <v>33918</v>
       </c>
       <c r="Q13">
-        <v>9248543666</v>
+        <v>9248543676</v>
       </c>
       <c r="R13" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S13" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T13">
         <v>4412</v>
@@ -1600,14 +2058,53 @@
       <c r="U13">
         <v>294943</v>
       </c>
-      <c r="V13">
-        <v>11111111111</v>
+      <c r="V13" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W13">
         <v>1111111111111110</v>
       </c>
-      <c r="AK13">
-        <v>11</v>
+      <c r="X13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
@@ -1615,13 +2112,13 @@
         <v>34</v>
       </c>
       <c r="B14">
-        <v>11111111</v>
+        <v>1111111111122</v>
       </c>
       <c r="C14" s="5">
-        <v>44414</v>
+        <v>44219</v>
       </c>
       <c r="D14">
-        <v>13001</v>
+        <v>13012</v>
       </c>
       <c r="E14" t="s">
         <v>35</v>
@@ -1635,12 +2132,13 @@
       <c r="H14" s="5">
         <v>44414</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="11"/>
       <c r="L14" t="s">
         <v>37</v>
       </c>
@@ -1654,16 +2152,16 @@
         <v>1</v>
       </c>
       <c r="P14" s="5">
-        <v>33908</v>
+        <v>33919</v>
       </c>
       <c r="Q14">
-        <v>9248543666</v>
+        <v>9248543677</v>
       </c>
       <c r="R14" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S14" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T14">
         <v>4412</v>
@@ -1671,14 +2169,53 @@
       <c r="U14">
         <v>294943</v>
       </c>
-      <c r="V14">
-        <v>11111111111</v>
+      <c r="V14" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W14">
         <v>1111111111111110</v>
       </c>
-      <c r="AK14">
-        <v>12</v>
+      <c r="X14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -1686,13 +2223,13 @@
         <v>34</v>
       </c>
       <c r="B15">
-        <v>11111111</v>
+        <v>1111111111123</v>
       </c>
       <c r="C15" s="5">
-        <v>44414</v>
+        <v>44220</v>
       </c>
       <c r="D15">
-        <v>13001</v>
+        <v>13013</v>
       </c>
       <c r="E15" t="s">
         <v>35</v>
@@ -1706,12 +2243,13 @@
       <c r="H15" s="5">
         <v>44414</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="11"/>
       <c r="L15" t="s">
         <v>37</v>
       </c>
@@ -1725,16 +2263,16 @@
         <v>1</v>
       </c>
       <c r="P15" s="5">
-        <v>33908</v>
+        <v>33920</v>
       </c>
       <c r="Q15">
-        <v>9248543666</v>
+        <v>9248543678</v>
       </c>
       <c r="R15" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S15" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T15">
         <v>4412</v>
@@ -1742,14 +2280,53 @@
       <c r="U15">
         <v>294943</v>
       </c>
-      <c r="V15">
-        <v>11111111111</v>
+      <c r="V15" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W15">
         <v>1111111111111110</v>
       </c>
-      <c r="AK15">
-        <v>13</v>
+      <c r="X15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -1757,13 +2334,13 @@
         <v>34</v>
       </c>
       <c r="B16">
-        <v>11111111</v>
+        <v>1111111111124</v>
       </c>
       <c r="C16" s="5">
-        <v>44414</v>
+        <v>44221</v>
       </c>
       <c r="D16">
-        <v>13001</v>
+        <v>13014</v>
       </c>
       <c r="E16" t="s">
         <v>35</v>
@@ -1777,12 +2354,13 @@
       <c r="H16" s="5">
         <v>44414</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="11"/>
       <c r="L16" t="s">
         <v>37</v>
       </c>
@@ -1796,16 +2374,16 @@
         <v>1</v>
       </c>
       <c r="P16" s="5">
-        <v>33908</v>
+        <v>33921</v>
       </c>
       <c r="Q16">
-        <v>9248543666</v>
+        <v>9248543679</v>
       </c>
       <c r="R16" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T16">
         <v>4412</v>
@@ -1813,14 +2391,53 @@
       <c r="U16">
         <v>294943</v>
       </c>
-      <c r="V16">
-        <v>11111111111</v>
+      <c r="V16" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W16">
         <v>1111111111111110</v>
       </c>
-      <c r="AK16">
-        <v>14</v>
+      <c r="X16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
@@ -1828,13 +2445,13 @@
         <v>34</v>
       </c>
       <c r="B17">
-        <v>11111111</v>
+        <v>1111111111125</v>
       </c>
       <c r="C17" s="5">
-        <v>44414</v>
+        <v>44222</v>
       </c>
       <c r="D17">
-        <v>13001</v>
+        <v>13015</v>
       </c>
       <c r="E17" t="s">
         <v>35</v>
@@ -1848,12 +2465,13 @@
       <c r="H17" s="5">
         <v>44414</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="11"/>
       <c r="L17" t="s">
         <v>37</v>
       </c>
@@ -1867,16 +2485,16 @@
         <v>1</v>
       </c>
       <c r="P17" s="5">
-        <v>33908</v>
+        <v>33922</v>
       </c>
       <c r="Q17">
-        <v>9248543666</v>
+        <v>9248543680</v>
       </c>
       <c r="R17" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S17" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T17">
         <v>4412</v>
@@ -1884,14 +2502,53 @@
       <c r="U17">
         <v>294943</v>
       </c>
-      <c r="V17">
-        <v>11111111111</v>
+      <c r="V17" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W17">
         <v>1111111111111110</v>
       </c>
-      <c r="AK17">
-        <v>15</v>
+      <c r="X17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
@@ -1899,13 +2556,13 @@
         <v>34</v>
       </c>
       <c r="B18">
-        <v>11111111</v>
+        <v>1111111111126</v>
       </c>
       <c r="C18" s="5">
-        <v>44414</v>
+        <v>44223</v>
       </c>
       <c r="D18">
-        <v>13001</v>
+        <v>13016</v>
       </c>
       <c r="E18" t="s">
         <v>35</v>
@@ -1919,12 +2576,13 @@
       <c r="H18" s="5">
         <v>44414</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="11"/>
       <c r="L18" t="s">
         <v>37</v>
       </c>
@@ -1938,16 +2596,16 @@
         <v>1</v>
       </c>
       <c r="P18" s="5">
-        <v>33908</v>
+        <v>33923</v>
       </c>
       <c r="Q18">
-        <v>9248543666</v>
+        <v>9248543681</v>
       </c>
       <c r="R18" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S18" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T18">
         <v>4412</v>
@@ -1955,14 +2613,53 @@
       <c r="U18">
         <v>294943</v>
       </c>
-      <c r="V18">
-        <v>11111111111</v>
+      <c r="V18" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W18">
         <v>1111111111111110</v>
       </c>
-      <c r="AK18">
-        <v>16</v>
+      <c r="X18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
@@ -1970,13 +2667,13 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>11111111</v>
+        <v>1111111111127</v>
       </c>
       <c r="C19" s="5">
-        <v>44414</v>
+        <v>44224</v>
       </c>
       <c r="D19">
-        <v>13001</v>
+        <v>13017</v>
       </c>
       <c r="E19" t="s">
         <v>35</v>
@@ -1990,12 +2687,13 @@
       <c r="H19" s="5">
         <v>44414</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="11"/>
       <c r="L19" t="s">
         <v>37</v>
       </c>
@@ -2009,16 +2707,16 @@
         <v>1</v>
       </c>
       <c r="P19" s="5">
-        <v>33908</v>
+        <v>33924</v>
       </c>
       <c r="Q19">
-        <v>9248543666</v>
+        <v>9248543682</v>
       </c>
       <c r="R19" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S19" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T19">
         <v>4412</v>
@@ -2026,14 +2724,53 @@
       <c r="U19">
         <v>294943</v>
       </c>
-      <c r="V19">
-        <v>11111111111</v>
+      <c r="V19" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W19">
         <v>1111111111111110</v>
       </c>
-      <c r="AK19">
-        <v>17</v>
+      <c r="X19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB19" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC19" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
@@ -2041,13 +2778,13 @@
         <v>34</v>
       </c>
       <c r="B20">
-        <v>11111111</v>
+        <v>1111111111128</v>
       </c>
       <c r="C20" s="5">
-        <v>44414</v>
+        <v>44225</v>
       </c>
       <c r="D20">
-        <v>13001</v>
+        <v>13018</v>
       </c>
       <c r="E20" t="s">
         <v>35</v>
@@ -2061,12 +2798,13 @@
       <c r="H20" s="5">
         <v>44414</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="11"/>
       <c r="L20" t="s">
         <v>37</v>
       </c>
@@ -2080,16 +2818,16 @@
         <v>1</v>
       </c>
       <c r="P20" s="5">
-        <v>33908</v>
+        <v>33925</v>
       </c>
       <c r="Q20">
-        <v>9248543666</v>
+        <v>9248543683</v>
       </c>
       <c r="R20" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S20" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T20">
         <v>4412</v>
@@ -2097,14 +2835,53 @@
       <c r="U20">
         <v>294943</v>
       </c>
-      <c r="V20">
-        <v>11111111111</v>
+      <c r="V20" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W20">
         <v>1111111111111110</v>
       </c>
-      <c r="AK20">
-        <v>18</v>
+      <c r="X20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA20" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC20" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD20" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
@@ -2112,13 +2889,13 @@
         <v>34</v>
       </c>
       <c r="B21">
-        <v>11111111</v>
+        <v>1111111111129</v>
       </c>
       <c r="C21" s="5">
-        <v>44414</v>
+        <v>44226</v>
       </c>
       <c r="D21">
-        <v>13001</v>
+        <v>13019</v>
       </c>
       <c r="E21" t="s">
         <v>35</v>
@@ -2132,12 +2909,13 @@
       <c r="H21" s="5">
         <v>44414</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="11"/>
       <c r="L21" t="s">
         <v>37</v>
       </c>
@@ -2151,16 +2929,16 @@
         <v>1</v>
       </c>
       <c r="P21" s="5">
-        <v>33908</v>
+        <v>33926</v>
       </c>
       <c r="Q21">
-        <v>9248543666</v>
+        <v>9248543684</v>
       </c>
       <c r="R21" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S21" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T21">
         <v>4412</v>
@@ -2168,14 +2946,53 @@
       <c r="U21">
         <v>294943</v>
       </c>
-      <c r="V21">
-        <v>11111111111</v>
+      <c r="V21" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W21">
         <v>1111111111111110</v>
       </c>
-      <c r="AK21">
-        <v>19</v>
+      <c r="X21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA21" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
@@ -2183,13 +3000,13 @@
         <v>34</v>
       </c>
       <c r="B22">
-        <v>11111111</v>
+        <v>1111111111130</v>
       </c>
       <c r="C22" s="5">
-        <v>44414</v>
+        <v>44227</v>
       </c>
       <c r="D22">
-        <v>13001</v>
+        <v>13020</v>
       </c>
       <c r="E22" t="s">
         <v>35</v>
@@ -2203,12 +3020,13 @@
       <c r="H22" s="5">
         <v>44414</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="11"/>
       <c r="L22" t="s">
         <v>37</v>
       </c>
@@ -2222,16 +3040,16 @@
         <v>1</v>
       </c>
       <c r="P22" s="5">
-        <v>33908</v>
+        <v>33927</v>
       </c>
       <c r="Q22">
-        <v>9248543666</v>
+        <v>9248543685</v>
       </c>
       <c r="R22" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S22" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T22">
         <v>4412</v>
@@ -2239,14 +3057,53 @@
       <c r="U22">
         <v>294943</v>
       </c>
-      <c r="V22">
-        <v>11111111111</v>
+      <c r="V22" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W22">
         <v>1111111111111110</v>
       </c>
-      <c r="AK22">
-        <v>20</v>
+      <c r="X22" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA22" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
@@ -2254,13 +3111,13 @@
         <v>34</v>
       </c>
       <c r="B23">
-        <v>11111111</v>
+        <v>1111111111131</v>
       </c>
       <c r="C23" s="5">
-        <v>44414</v>
+        <v>44228</v>
       </c>
       <c r="D23">
-        <v>13001</v>
+        <v>13021</v>
       </c>
       <c r="E23" t="s">
         <v>35</v>
@@ -2274,12 +3131,13 @@
       <c r="H23" s="5">
         <v>44414</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="11"/>
       <c r="L23" t="s">
         <v>37</v>
       </c>
@@ -2293,16 +3151,16 @@
         <v>1</v>
       </c>
       <c r="P23" s="5">
-        <v>33908</v>
+        <v>33928</v>
       </c>
       <c r="Q23">
-        <v>9248543666</v>
+        <v>9248543686</v>
       </c>
       <c r="R23" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S23" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T23">
         <v>4412</v>
@@ -2310,14 +3168,53 @@
       <c r="U23">
         <v>294943</v>
       </c>
-      <c r="V23">
-        <v>11111111111</v>
+      <c r="V23" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W23">
         <v>1111111111111110</v>
       </c>
-      <c r="AK23">
-        <v>21</v>
+      <c r="X23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA23" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
@@ -2325,13 +3222,13 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>11111111</v>
+        <v>1111111111132</v>
       </c>
       <c r="C24" s="5">
-        <v>44414</v>
+        <v>44229</v>
       </c>
       <c r="D24">
-        <v>13001</v>
+        <v>13022</v>
       </c>
       <c r="E24" t="s">
         <v>35</v>
@@ -2345,12 +3242,13 @@
       <c r="H24" s="5">
         <v>44414</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
+      <c r="I24" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="11"/>
       <c r="L24" t="s">
         <v>37</v>
       </c>
@@ -2364,16 +3262,16 @@
         <v>1</v>
       </c>
       <c r="P24" s="5">
-        <v>33908</v>
+        <v>33929</v>
       </c>
       <c r="Q24">
-        <v>9248543666</v>
+        <v>9248543687</v>
       </c>
       <c r="R24" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S24" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T24">
         <v>4412</v>
@@ -2381,14 +3279,53 @@
       <c r="U24">
         <v>294943</v>
       </c>
-      <c r="V24">
-        <v>11111111111</v>
+      <c r="V24" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W24">
         <v>1111111111111110</v>
       </c>
-      <c r="AK24">
-        <v>22</v>
+      <c r="X24" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA24" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
@@ -2396,13 +3333,13 @@
         <v>34</v>
       </c>
       <c r="B25">
-        <v>11111111</v>
+        <v>1111111111133</v>
       </c>
       <c r="C25" s="5">
-        <v>44414</v>
+        <v>44230</v>
       </c>
       <c r="D25">
-        <v>13001</v>
+        <v>13023</v>
       </c>
       <c r="E25" t="s">
         <v>35</v>
@@ -2416,12 +3353,13 @@
       <c r="H25" s="5">
         <v>44414</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
+      <c r="I25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="11"/>
       <c r="L25" t="s">
         <v>37</v>
       </c>
@@ -2435,16 +3373,16 @@
         <v>1</v>
       </c>
       <c r="P25" s="5">
-        <v>33908</v>
+        <v>33930</v>
       </c>
       <c r="Q25">
-        <v>9248543666</v>
+        <v>9248543688</v>
       </c>
       <c r="R25" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S25" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T25">
         <v>4412</v>
@@ -2452,14 +3390,53 @@
       <c r="U25">
         <v>294943</v>
       </c>
-      <c r="V25">
-        <v>11111111111</v>
+      <c r="V25" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W25">
         <v>1111111111111110</v>
       </c>
-      <c r="AK25">
-        <v>23</v>
+      <c r="X25" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA25" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB25" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC25" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
@@ -2467,13 +3444,13 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>11111111</v>
+        <v>1111111111134</v>
       </c>
       <c r="C26" s="5">
-        <v>44414</v>
+        <v>44231</v>
       </c>
       <c r="D26">
-        <v>13001</v>
+        <v>13024</v>
       </c>
       <c r="E26" t="s">
         <v>35</v>
@@ -2487,12 +3464,13 @@
       <c r="H26" s="5">
         <v>44414</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
+      <c r="I26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="11"/>
       <c r="L26" t="s">
         <v>37</v>
       </c>
@@ -2506,16 +3484,16 @@
         <v>1</v>
       </c>
       <c r="P26" s="5">
-        <v>33908</v>
+        <v>33931</v>
       </c>
       <c r="Q26">
-        <v>9248543666</v>
+        <v>9248543689</v>
       </c>
       <c r="R26" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S26" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T26">
         <v>4412</v>
@@ -2523,14 +3501,53 @@
       <c r="U26">
         <v>294943</v>
       </c>
-      <c r="V26">
-        <v>11111111111</v>
+      <c r="V26" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W26">
         <v>1111111111111110</v>
       </c>
-      <c r="AK26">
-        <v>24</v>
+      <c r="X26" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC26" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
@@ -2538,13 +3555,13 @@
         <v>34</v>
       </c>
       <c r="B27">
-        <v>11111111</v>
+        <v>1111111111135</v>
       </c>
       <c r="C27" s="5">
-        <v>44414</v>
+        <v>44232</v>
       </c>
       <c r="D27">
-        <v>13001</v>
+        <v>13025</v>
       </c>
       <c r="E27" t="s">
         <v>35</v>
@@ -2558,12 +3575,13 @@
       <c r="H27" s="5">
         <v>44414</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
+      <c r="I27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="11"/>
       <c r="L27" t="s">
         <v>37</v>
       </c>
@@ -2577,16 +3595,16 @@
         <v>1</v>
       </c>
       <c r="P27" s="5">
-        <v>33908</v>
+        <v>33932</v>
       </c>
       <c r="Q27">
-        <v>9248543666</v>
+        <v>9248543690</v>
       </c>
       <c r="R27" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S27" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T27">
         <v>4412</v>
@@ -2594,14 +3612,53 @@
       <c r="U27">
         <v>294943</v>
       </c>
-      <c r="V27">
-        <v>11111111111</v>
+      <c r="V27" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W27">
         <v>1111111111111110</v>
       </c>
-      <c r="AK27">
-        <v>25</v>
+      <c r="X27" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y27" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA27" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB27" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD27" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
@@ -2609,13 +3666,13 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>11111111</v>
+        <v>1111111111136</v>
       </c>
       <c r="C28" s="5">
-        <v>44414</v>
+        <v>44233</v>
       </c>
       <c r="D28">
-        <v>13001</v>
+        <v>13026</v>
       </c>
       <c r="E28" t="s">
         <v>35</v>
@@ -2629,12 +3686,13 @@
       <c r="H28" s="5">
         <v>44414</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
+      <c r="I28" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="11"/>
       <c r="L28" t="s">
         <v>37</v>
       </c>
@@ -2648,16 +3706,16 @@
         <v>1</v>
       </c>
       <c r="P28" s="5">
-        <v>33908</v>
+        <v>33933</v>
       </c>
       <c r="Q28">
-        <v>9248543666</v>
+        <v>9248543691</v>
       </c>
       <c r="R28" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S28" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T28">
         <v>4412</v>
@@ -2665,14 +3723,53 @@
       <c r="U28">
         <v>294943</v>
       </c>
-      <c r="V28">
-        <v>11111111111</v>
+      <c r="V28" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W28">
         <v>1111111111111110</v>
       </c>
-      <c r="AK28">
-        <v>26</v>
+      <c r="X28" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z28" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD28" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
@@ -2680,13 +3777,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>11111111</v>
+        <v>1111111111137</v>
       </c>
       <c r="C29" s="5">
-        <v>44414</v>
+        <v>44234</v>
       </c>
       <c r="D29">
-        <v>13001</v>
+        <v>13027</v>
       </c>
       <c r="E29" t="s">
         <v>35</v>
@@ -2700,12 +3797,13 @@
       <c r="H29" s="5">
         <v>44414</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
+      <c r="I29" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" s="11"/>
       <c r="L29" t="s">
         <v>37</v>
       </c>
@@ -2719,16 +3817,16 @@
         <v>1</v>
       </c>
       <c r="P29" s="5">
-        <v>33908</v>
+        <v>33934</v>
       </c>
       <c r="Q29">
-        <v>9248543666</v>
+        <v>9248543692</v>
       </c>
       <c r="R29" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S29" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T29">
         <v>4412</v>
@@ -2736,14 +3834,53 @@
       <c r="U29">
         <v>294943</v>
       </c>
-      <c r="V29">
-        <v>11111111111</v>
+      <c r="V29" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W29">
         <v>1111111111111110</v>
       </c>
-      <c r="AK29">
-        <v>27</v>
+      <c r="X29" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y29" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC29" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD29" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
@@ -2751,13 +3888,13 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>11111111</v>
+        <v>1111111111138</v>
       </c>
       <c r="C30" s="5">
-        <v>44414</v>
+        <v>44235</v>
       </c>
       <c r="D30">
-        <v>13001</v>
+        <v>13028</v>
       </c>
       <c r="E30" t="s">
         <v>35</v>
@@ -2771,12 +3908,13 @@
       <c r="H30" s="5">
         <v>44414</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
+      <c r="I30" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" s="11"/>
       <c r="L30" t="s">
         <v>37</v>
       </c>
@@ -2790,16 +3928,16 @@
         <v>1</v>
       </c>
       <c r="P30" s="5">
-        <v>33908</v>
+        <v>33935</v>
       </c>
       <c r="Q30">
-        <v>9248543666</v>
+        <v>9248543693</v>
       </c>
       <c r="R30" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S30" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T30">
         <v>4412</v>
@@ -2807,14 +3945,53 @@
       <c r="U30">
         <v>294943</v>
       </c>
-      <c r="V30">
-        <v>11111111111</v>
+      <c r="V30" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W30">
         <v>1111111111111110</v>
       </c>
-      <c r="AK30">
-        <v>28</v>
+      <c r="X30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y30" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA30" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC30" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD30" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
@@ -2822,13 +3999,13 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>11111111</v>
+        <v>1111111111139</v>
       </c>
       <c r="C31" s="5">
-        <v>44414</v>
+        <v>44236</v>
       </c>
       <c r="D31">
-        <v>13001</v>
+        <v>13029</v>
       </c>
       <c r="E31" t="s">
         <v>35</v>
@@ -2842,12 +4019,13 @@
       <c r="H31" s="5">
         <v>44414</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
+      <c r="I31" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="11"/>
       <c r="L31" t="s">
         <v>37</v>
       </c>
@@ -2861,16 +4039,16 @@
         <v>1</v>
       </c>
       <c r="P31" s="5">
-        <v>33908</v>
+        <v>33936</v>
       </c>
       <c r="Q31">
-        <v>9248543666</v>
+        <v>9248543694</v>
       </c>
       <c r="R31" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S31" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T31">
         <v>4412</v>
@@ -2878,14 +4056,53 @@
       <c r="U31">
         <v>294943</v>
       </c>
-      <c r="V31">
-        <v>11111111111</v>
+      <c r="V31" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W31">
         <v>1111111111111110</v>
       </c>
-      <c r="AK31">
-        <v>29</v>
+      <c r="X31" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y31" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z31" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB31" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD31" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
@@ -2893,13 +4110,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>11111111</v>
+        <v>1111111111140</v>
       </c>
       <c r="C32" s="5">
-        <v>44414</v>
+        <v>44237</v>
       </c>
       <c r="D32">
-        <v>13001</v>
+        <v>13030</v>
       </c>
       <c r="E32" t="s">
         <v>35</v>
@@ -2913,12 +4130,13 @@
       <c r="H32" s="5">
         <v>44414</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
+      <c r="I32" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="11"/>
       <c r="L32" t="s">
         <v>37</v>
       </c>
@@ -2932,16 +4150,16 @@
         <v>1</v>
       </c>
       <c r="P32" s="5">
-        <v>33908</v>
+        <v>33937</v>
       </c>
       <c r="Q32">
-        <v>9248543666</v>
+        <v>9248543695</v>
       </c>
       <c r="R32" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S32" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T32">
         <v>4412</v>
@@ -2949,14 +4167,53 @@
       <c r="U32">
         <v>294943</v>
       </c>
-      <c r="V32">
-        <v>11111111111</v>
+      <c r="V32" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W32">
         <v>1111111111111110</v>
       </c>
-      <c r="AK32">
-        <v>30</v>
+      <c r="X32" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y32" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z32" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA32" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB32" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC32" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD32" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.25">
@@ -2964,13 +4221,13 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>11111111</v>
+        <v>1111111111141</v>
       </c>
       <c r="C33" s="5">
-        <v>44414</v>
+        <v>44238</v>
       </c>
       <c r="D33">
-        <v>13001</v>
+        <v>13031</v>
       </c>
       <c r="E33" t="s">
         <v>35</v>
@@ -2984,12 +4241,13 @@
       <c r="H33" s="5">
         <v>44414</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
+      <c r="I33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33" s="11"/>
       <c r="L33" t="s">
         <v>37</v>
       </c>
@@ -3003,16 +4261,16 @@
         <v>1</v>
       </c>
       <c r="P33" s="5">
-        <v>33908</v>
+        <v>33938</v>
       </c>
       <c r="Q33">
-        <v>9248543666</v>
+        <v>9248543696</v>
       </c>
       <c r="R33" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S33" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T33">
         <v>4412</v>
@@ -3020,14 +4278,53 @@
       <c r="U33">
         <v>294943</v>
       </c>
-      <c r="V33">
-        <v>11111111111</v>
+      <c r="V33" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W33">
         <v>1111111111111110</v>
       </c>
-      <c r="AK33">
-        <v>31</v>
+      <c r="X33" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y33" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z33" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA33" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB33" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC33" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD33" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.25">
@@ -3035,13 +4332,13 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>11111111</v>
+        <v>1111111111142</v>
       </c>
       <c r="C34" s="5">
-        <v>44414</v>
+        <v>44239</v>
       </c>
       <c r="D34">
-        <v>13001</v>
+        <v>13032</v>
       </c>
       <c r="E34" t="s">
         <v>35</v>
@@ -3055,12 +4352,13 @@
       <c r="H34" s="5">
         <v>44414</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
+      <c r="I34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34" s="11"/>
       <c r="L34" t="s">
         <v>37</v>
       </c>
@@ -3074,16 +4372,16 @@
         <v>1</v>
       </c>
       <c r="P34" s="5">
-        <v>33908</v>
+        <v>33939</v>
       </c>
       <c r="Q34">
-        <v>9248543666</v>
+        <v>9248543697</v>
       </c>
       <c r="R34" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S34" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T34">
         <v>4412</v>
@@ -3091,13 +4389,52 @@
       <c r="U34">
         <v>294943</v>
       </c>
-      <c r="V34">
-        <v>11111111111</v>
+      <c r="V34" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W34">
         <v>1111111111111110</v>
       </c>
-      <c r="AK34">
+      <c r="X34" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y34" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z34" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA34" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB34" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC34" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD34" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK34" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3106,13 +4443,13 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>11111111</v>
+        <v>1111111111143</v>
       </c>
       <c r="C35" s="5">
-        <v>44414</v>
+        <v>44240</v>
       </c>
       <c r="D35">
-        <v>13001</v>
+        <v>13033</v>
       </c>
       <c r="E35" t="s">
         <v>35</v>
@@ -3126,12 +4463,13 @@
       <c r="H35" s="5">
         <v>44414</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
+      <c r="I35" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" s="11"/>
       <c r="L35" t="s">
         <v>37</v>
       </c>
@@ -3145,16 +4483,16 @@
         <v>1</v>
       </c>
       <c r="P35" s="5">
-        <v>33908</v>
+        <v>33940</v>
       </c>
       <c r="Q35">
-        <v>9248543666</v>
+        <v>9248543698</v>
       </c>
       <c r="R35" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S35" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T35">
         <v>4412</v>
@@ -3162,14 +4500,53 @@
       <c r="U35">
         <v>294943</v>
       </c>
-      <c r="V35">
-        <v>11111111111</v>
+      <c r="V35" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W35">
         <v>1111111111111110</v>
       </c>
-      <c r="AK35">
-        <v>33</v>
+      <c r="X35" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y35" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z35" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA35" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB35" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC35" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD35" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.25">
@@ -3177,13 +4554,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>11111111</v>
+        <v>1111111111144</v>
       </c>
       <c r="C36" s="5">
-        <v>44414</v>
+        <v>44241</v>
       </c>
       <c r="D36">
-        <v>13001</v>
+        <v>13034</v>
       </c>
       <c r="E36" t="s">
         <v>35</v>
@@ -3197,12 +4574,13 @@
       <c r="H36" s="5">
         <v>44414</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
+      <c r="I36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36" s="11"/>
       <c r="L36" t="s">
         <v>37</v>
       </c>
@@ -3216,16 +4594,16 @@
         <v>1</v>
       </c>
       <c r="P36" s="5">
-        <v>33908</v>
+        <v>33941</v>
       </c>
       <c r="Q36">
-        <v>9248543666</v>
+        <v>9248543699</v>
       </c>
       <c r="R36" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S36" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T36">
         <v>4412</v>
@@ -3233,14 +4611,53 @@
       <c r="U36">
         <v>294943</v>
       </c>
-      <c r="V36">
-        <v>11111111111</v>
+      <c r="V36" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W36">
         <v>1111111111111110</v>
       </c>
-      <c r="AK36">
-        <v>34</v>
+      <c r="X36" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y36" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z36" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA36" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB36" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC36" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD36" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.25">
@@ -3248,13 +4665,13 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <v>11111111</v>
+        <v>1111111111145</v>
       </c>
       <c r="C37" s="5">
-        <v>44414</v>
+        <v>44242</v>
       </c>
       <c r="D37">
-        <v>13001</v>
+        <v>13035</v>
       </c>
       <c r="E37" t="s">
         <v>35</v>
@@ -3268,12 +4685,13 @@
       <c r="H37" s="5">
         <v>44414</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
+      <c r="I37" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37" s="11"/>
       <c r="L37" t="s">
         <v>37</v>
       </c>
@@ -3287,16 +4705,16 @@
         <v>1</v>
       </c>
       <c r="P37" s="5">
-        <v>33908</v>
+        <v>33942</v>
       </c>
       <c r="Q37">
-        <v>9248543666</v>
+        <v>9248543700</v>
       </c>
       <c r="R37" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S37" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T37">
         <v>4412</v>
@@ -3304,14 +4722,53 @@
       <c r="U37">
         <v>294943</v>
       </c>
-      <c r="V37">
-        <v>11111111111</v>
+      <c r="V37" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W37">
         <v>1111111111111110</v>
       </c>
-      <c r="AK37">
-        <v>35</v>
+      <c r="X37" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y37" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z37" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA37" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB37" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC37" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD37" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
@@ -3319,13 +4776,13 @@
         <v>34</v>
       </c>
       <c r="B38">
-        <v>11111111</v>
+        <v>1111111111146</v>
       </c>
       <c r="C38" s="5">
-        <v>44414</v>
+        <v>44243</v>
       </c>
       <c r="D38">
-        <v>13001</v>
+        <v>13036</v>
       </c>
       <c r="E38" t="s">
         <v>35</v>
@@ -3339,12 +4796,13 @@
       <c r="H38" s="5">
         <v>44414</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
+      <c r="I38" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" t="s">
+        <v>45</v>
+      </c>
+      <c r="K38" s="11"/>
       <c r="L38" t="s">
         <v>37</v>
       </c>
@@ -3358,16 +4816,16 @@
         <v>1</v>
       </c>
       <c r="P38" s="5">
-        <v>33908</v>
+        <v>33943</v>
       </c>
       <c r="Q38">
-        <v>9248543666</v>
+        <v>9248543701</v>
       </c>
       <c r="R38" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S38" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T38">
         <v>4412</v>
@@ -3375,14 +4833,53 @@
       <c r="U38">
         <v>294943</v>
       </c>
-      <c r="V38">
-        <v>11111111111</v>
+      <c r="V38" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W38">
         <v>1111111111111110</v>
       </c>
-      <c r="AK38">
-        <v>36</v>
+      <c r="X38" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y38" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z38" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA38" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB38" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC38" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD38" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.25">
@@ -3390,13 +4887,13 @@
         <v>34</v>
       </c>
       <c r="B39">
-        <v>11111111</v>
+        <v>1111111111147</v>
       </c>
       <c r="C39" s="5">
-        <v>44414</v>
+        <v>44244</v>
       </c>
       <c r="D39">
-        <v>13001</v>
+        <v>13037</v>
       </c>
       <c r="E39" t="s">
         <v>35</v>
@@ -3410,12 +4907,13 @@
       <c r="H39" s="5">
         <v>44414</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
+      <c r="I39" t="s">
+        <v>41</v>
+      </c>
+      <c r="J39" t="s">
+        <v>45</v>
+      </c>
+      <c r="K39" s="11"/>
       <c r="L39" t="s">
         <v>37</v>
       </c>
@@ -3429,16 +4927,16 @@
         <v>1</v>
       </c>
       <c r="P39" s="5">
-        <v>33908</v>
+        <v>33944</v>
       </c>
       <c r="Q39">
-        <v>9248543666</v>
+        <v>9248543702</v>
       </c>
       <c r="R39" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S39" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T39">
         <v>4412</v>
@@ -3446,14 +4944,53 @@
       <c r="U39">
         <v>294943</v>
       </c>
-      <c r="V39">
-        <v>11111111111</v>
+      <c r="V39" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W39">
         <v>1111111111111110</v>
       </c>
-      <c r="AK39">
-        <v>37</v>
+      <c r="X39" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y39" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z39" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA39" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB39" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC39" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD39" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.25">
@@ -3461,13 +4998,13 @@
         <v>34</v>
       </c>
       <c r="B40">
-        <v>11111111</v>
+        <v>1111111111148</v>
       </c>
       <c r="C40" s="5">
-        <v>44414</v>
+        <v>44245</v>
       </c>
       <c r="D40">
-        <v>13001</v>
+        <v>13038</v>
       </c>
       <c r="E40" t="s">
         <v>35</v>
@@ -3481,12 +5018,13 @@
       <c r="H40" s="5">
         <v>44414</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
+      <c r="I40" t="s">
+        <v>41</v>
+      </c>
+      <c r="J40" t="s">
+        <v>45</v>
+      </c>
+      <c r="K40" s="11"/>
       <c r="L40" t="s">
         <v>37</v>
       </c>
@@ -3500,16 +5038,16 @@
         <v>1</v>
       </c>
       <c r="P40" s="5">
-        <v>33908</v>
+        <v>33945</v>
       </c>
       <c r="Q40">
-        <v>9248543666</v>
+        <v>9248543703</v>
       </c>
       <c r="R40" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S40" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T40">
         <v>4412</v>
@@ -3517,14 +5055,53 @@
       <c r="U40">
         <v>294943</v>
       </c>
-      <c r="V40">
-        <v>11111111111</v>
+      <c r="V40" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W40">
         <v>1111111111111110</v>
       </c>
-      <c r="AK40">
-        <v>38</v>
+      <c r="X40" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y40" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA40" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB40" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC40" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD40" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.25">
@@ -3532,13 +5109,13 @@
         <v>34</v>
       </c>
       <c r="B41">
-        <v>11111111</v>
+        <v>1111111111149</v>
       </c>
       <c r="C41" s="5">
-        <v>44414</v>
+        <v>44246</v>
       </c>
       <c r="D41">
-        <v>13001</v>
+        <v>13039</v>
       </c>
       <c r="E41" t="s">
         <v>35</v>
@@ -3552,12 +5129,13 @@
       <c r="H41" s="5">
         <v>44414</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
+      <c r="I41" t="s">
+        <v>41</v>
+      </c>
+      <c r="J41" t="s">
+        <v>45</v>
+      </c>
+      <c r="K41" s="11"/>
       <c r="L41" t="s">
         <v>37</v>
       </c>
@@ -3571,16 +5149,16 @@
         <v>1</v>
       </c>
       <c r="P41" s="5">
-        <v>33908</v>
+        <v>33946</v>
       </c>
       <c r="Q41">
-        <v>9248543666</v>
+        <v>9248543704</v>
       </c>
       <c r="R41" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S41" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T41">
         <v>4412</v>
@@ -3588,14 +5166,53 @@
       <c r="U41">
         <v>294943</v>
       </c>
-      <c r="V41">
-        <v>11111111111</v>
+      <c r="V41" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W41">
         <v>1111111111111110</v>
       </c>
-      <c r="AK41">
-        <v>39</v>
+      <c r="X41" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y41" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z41" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA41" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB41" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC41" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD41" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.25">
@@ -3603,13 +5220,13 @@
         <v>34</v>
       </c>
       <c r="B42">
-        <v>11111111</v>
+        <v>1111111111150</v>
       </c>
       <c r="C42" s="5">
-        <v>44414</v>
+        <v>44247</v>
       </c>
       <c r="D42">
-        <v>13001</v>
+        <v>13040</v>
       </c>
       <c r="E42" t="s">
         <v>35</v>
@@ -3623,12 +5240,13 @@
       <c r="H42" s="5">
         <v>44414</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
+      <c r="I42" t="s">
+        <v>41</v>
+      </c>
+      <c r="J42" t="s">
+        <v>45</v>
+      </c>
+      <c r="K42" s="11"/>
       <c r="L42" t="s">
         <v>37</v>
       </c>
@@ -3642,16 +5260,16 @@
         <v>1</v>
       </c>
       <c r="P42" s="5">
-        <v>33908</v>
+        <v>33947</v>
       </c>
       <c r="Q42">
-        <v>9248543666</v>
+        <v>9248543705</v>
       </c>
       <c r="R42" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S42" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T42">
         <v>4412</v>
@@ -3659,14 +5277,53 @@
       <c r="U42">
         <v>294943</v>
       </c>
-      <c r="V42">
-        <v>11111111111</v>
+      <c r="V42" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W42">
         <v>1111111111111110</v>
       </c>
-      <c r="AK42">
-        <v>40</v>
+      <c r="X42" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y42" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z42" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA42" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB42" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC42" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD42" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.25">
@@ -3674,13 +5331,13 @@
         <v>34</v>
       </c>
       <c r="B43">
-        <v>11111111</v>
+        <v>1111111111151</v>
       </c>
       <c r="C43" s="5">
-        <v>44414</v>
+        <v>44248</v>
       </c>
       <c r="D43">
-        <v>13001</v>
+        <v>13041</v>
       </c>
       <c r="E43" t="s">
         <v>35</v>
@@ -3694,12 +5351,13 @@
       <c r="H43" s="5">
         <v>44414</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
+      <c r="I43" t="s">
+        <v>41</v>
+      </c>
+      <c r="J43" t="s">
+        <v>45</v>
+      </c>
+      <c r="K43" s="11"/>
       <c r="L43" t="s">
         <v>37</v>
       </c>
@@ -3713,16 +5371,16 @@
         <v>1</v>
       </c>
       <c r="P43" s="5">
-        <v>33908</v>
+        <v>33948</v>
       </c>
       <c r="Q43">
-        <v>9248543666</v>
+        <v>9248543706</v>
       </c>
       <c r="R43" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S43" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T43">
         <v>4412</v>
@@ -3730,14 +5388,53 @@
       <c r="U43">
         <v>294943</v>
       </c>
-      <c r="V43">
-        <v>11111111111</v>
+      <c r="V43" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W43">
         <v>1111111111111110</v>
       </c>
-      <c r="AK43">
-        <v>41</v>
+      <c r="X43" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y43" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z43" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA43" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB43" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC43" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD43" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.25">
@@ -3745,13 +5442,13 @@
         <v>34</v>
       </c>
       <c r="B44">
-        <v>11111111</v>
+        <v>1111111111152</v>
       </c>
       <c r="C44" s="5">
-        <v>44414</v>
+        <v>44249</v>
       </c>
       <c r="D44">
-        <v>13001</v>
+        <v>13042</v>
       </c>
       <c r="E44" t="s">
         <v>35</v>
@@ -3765,12 +5462,13 @@
       <c r="H44" s="5">
         <v>44414</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
+      <c r="I44" t="s">
+        <v>41</v>
+      </c>
+      <c r="J44" t="s">
+        <v>45</v>
+      </c>
+      <c r="K44" s="11"/>
       <c r="L44" t="s">
         <v>37</v>
       </c>
@@ -3784,16 +5482,16 @@
         <v>1</v>
       </c>
       <c r="P44" s="5">
-        <v>33908</v>
+        <v>33949</v>
       </c>
       <c r="Q44">
-        <v>9248543666</v>
+        <v>9248543707</v>
       </c>
       <c r="R44" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S44" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T44">
         <v>4412</v>
@@ -3801,14 +5499,53 @@
       <c r="U44">
         <v>294943</v>
       </c>
-      <c r="V44">
-        <v>11111111111</v>
+      <c r="V44" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W44">
         <v>1111111111111110</v>
       </c>
-      <c r="AK44">
-        <v>42</v>
+      <c r="X44" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y44" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z44" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA44" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB44" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC44" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD44" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.25">
@@ -3816,13 +5553,13 @@
         <v>34</v>
       </c>
       <c r="B45">
-        <v>11111111</v>
+        <v>1111111111153</v>
       </c>
       <c r="C45" s="5">
-        <v>44414</v>
+        <v>44250</v>
       </c>
       <c r="D45">
-        <v>13001</v>
+        <v>13043</v>
       </c>
       <c r="E45" t="s">
         <v>35</v>
@@ -3836,12 +5573,13 @@
       <c r="H45" s="5">
         <v>44414</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
+      <c r="I45" t="s">
+        <v>41</v>
+      </c>
+      <c r="J45" t="s">
+        <v>45</v>
+      </c>
+      <c r="K45" s="11"/>
       <c r="L45" t="s">
         <v>37</v>
       </c>
@@ -3855,16 +5593,16 @@
         <v>1</v>
       </c>
       <c r="P45" s="5">
-        <v>33908</v>
+        <v>33950</v>
       </c>
       <c r="Q45">
-        <v>9248543666</v>
+        <v>9248543708</v>
       </c>
       <c r="R45" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S45" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T45">
         <v>4412</v>
@@ -3872,14 +5610,53 @@
       <c r="U45">
         <v>294943</v>
       </c>
-      <c r="V45">
-        <v>11111111111</v>
+      <c r="V45" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W45">
         <v>1111111111111110</v>
       </c>
-      <c r="AK45">
-        <v>43</v>
+      <c r="X45" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y45" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z45" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA45" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB45" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC45" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD45" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.25">
@@ -3887,13 +5664,13 @@
         <v>34</v>
       </c>
       <c r="B46">
-        <v>11111111</v>
+        <v>1111111111154</v>
       </c>
       <c r="C46" s="5">
-        <v>44414</v>
+        <v>44251</v>
       </c>
       <c r="D46">
-        <v>13001</v>
+        <v>13044</v>
       </c>
       <c r="E46" t="s">
         <v>35</v>
@@ -3907,12 +5684,13 @@
       <c r="H46" s="5">
         <v>44414</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
+      <c r="I46" t="s">
+        <v>41</v>
+      </c>
+      <c r="J46" t="s">
+        <v>45</v>
+      </c>
+      <c r="K46" s="11"/>
       <c r="L46" t="s">
         <v>37</v>
       </c>
@@ -3926,16 +5704,16 @@
         <v>1</v>
       </c>
       <c r="P46" s="5">
-        <v>33908</v>
+        <v>33951</v>
       </c>
       <c r="Q46">
-        <v>9248543666</v>
+        <v>9248543709</v>
       </c>
       <c r="R46" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S46" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T46">
         <v>4412</v>
@@ -3943,14 +5721,53 @@
       <c r="U46">
         <v>294943</v>
       </c>
-      <c r="V46">
-        <v>11111111111</v>
+      <c r="V46" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W46">
         <v>1111111111111110</v>
       </c>
-      <c r="AK46">
-        <v>44</v>
+      <c r="X46" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y46" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z46" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA46" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB46" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC46" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD46" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.25">
@@ -3958,13 +5775,13 @@
         <v>34</v>
       </c>
       <c r="B47">
-        <v>11111111</v>
+        <v>1111111111155</v>
       </c>
       <c r="C47" s="5">
-        <v>44414</v>
+        <v>44252</v>
       </c>
       <c r="D47">
-        <v>13001</v>
+        <v>13045</v>
       </c>
       <c r="E47" t="s">
         <v>35</v>
@@ -3978,12 +5795,13 @@
       <c r="H47" s="5">
         <v>44414</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
+      <c r="I47" t="s">
+        <v>41</v>
+      </c>
+      <c r="J47" t="s">
+        <v>45</v>
+      </c>
+      <c r="K47" s="11"/>
       <c r="L47" t="s">
         <v>37</v>
       </c>
@@ -3997,16 +5815,16 @@
         <v>1</v>
       </c>
       <c r="P47" s="5">
-        <v>33908</v>
+        <v>33952</v>
       </c>
       <c r="Q47">
-        <v>9248543666</v>
+        <v>9248543710</v>
       </c>
       <c r="R47" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S47" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T47">
         <v>4412</v>
@@ -4014,14 +5832,53 @@
       <c r="U47">
         <v>294943</v>
       </c>
-      <c r="V47">
-        <v>11111111111</v>
+      <c r="V47" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W47">
         <v>1111111111111110</v>
       </c>
-      <c r="AK47">
-        <v>45</v>
+      <c r="X47" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y47" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z47" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA47" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB47" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC47" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD47" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.25">
@@ -4029,13 +5886,13 @@
         <v>34</v>
       </c>
       <c r="B48">
-        <v>11111111</v>
+        <v>1111111111156</v>
       </c>
       <c r="C48" s="5">
-        <v>44414</v>
+        <v>44253</v>
       </c>
       <c r="D48">
-        <v>13001</v>
+        <v>13046</v>
       </c>
       <c r="E48" t="s">
         <v>35</v>
@@ -4049,12 +5906,13 @@
       <c r="H48" s="5">
         <v>44414</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
+      <c r="I48" t="s">
+        <v>41</v>
+      </c>
+      <c r="J48" t="s">
+        <v>45</v>
+      </c>
+      <c r="K48" s="11"/>
       <c r="L48" t="s">
         <v>37</v>
       </c>
@@ -4068,16 +5926,16 @@
         <v>1</v>
       </c>
       <c r="P48" s="5">
-        <v>33908</v>
+        <v>33953</v>
       </c>
       <c r="Q48">
-        <v>9248543666</v>
+        <v>9248543711</v>
       </c>
       <c r="R48" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S48" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T48">
         <v>4412</v>
@@ -4085,14 +5943,53 @@
       <c r="U48">
         <v>294943</v>
       </c>
-      <c r="V48">
-        <v>11111111111</v>
+      <c r="V48" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W48">
         <v>1111111111111110</v>
       </c>
-      <c r="AK48">
-        <v>46</v>
+      <c r="X48" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y48" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z48" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA48" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB48" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC48" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD48" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.25">
@@ -4100,13 +5997,13 @@
         <v>34</v>
       </c>
       <c r="B49">
-        <v>11111111</v>
+        <v>1111111111157</v>
       </c>
       <c r="C49" s="5">
-        <v>44414</v>
+        <v>44254</v>
       </c>
       <c r="D49">
-        <v>13001</v>
+        <v>13047</v>
       </c>
       <c r="E49" t="s">
         <v>35</v>
@@ -4120,12 +6017,13 @@
       <c r="H49" s="5">
         <v>44414</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
+      <c r="I49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J49" t="s">
+        <v>45</v>
+      </c>
+      <c r="K49" s="11"/>
       <c r="L49" t="s">
         <v>37</v>
       </c>
@@ -4139,16 +6037,16 @@
         <v>1</v>
       </c>
       <c r="P49" s="5">
-        <v>33908</v>
+        <v>33954</v>
       </c>
       <c r="Q49">
-        <v>9248543666</v>
+        <v>9248543712</v>
       </c>
       <c r="R49" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S49" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T49">
         <v>4412</v>
@@ -4156,14 +6054,53 @@
       <c r="U49">
         <v>294943</v>
       </c>
-      <c r="V49">
-        <v>11111111111</v>
+      <c r="V49" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W49">
         <v>1111111111111110</v>
       </c>
-      <c r="AK49">
-        <v>47</v>
+      <c r="X49" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y49" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z49" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA49" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB49" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC49" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD49" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.25">
@@ -4171,13 +6108,13 @@
         <v>34</v>
       </c>
       <c r="B50">
-        <v>11111111</v>
+        <v>1111111111158</v>
       </c>
       <c r="C50" s="5">
-        <v>44414</v>
+        <v>44255</v>
       </c>
       <c r="D50">
-        <v>13001</v>
+        <v>13048</v>
       </c>
       <c r="E50" t="s">
         <v>35</v>
@@ -4191,12 +6128,13 @@
       <c r="H50" s="5">
         <v>44414</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
+      <c r="I50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50" t="s">
+        <v>45</v>
+      </c>
+      <c r="K50" s="11"/>
       <c r="L50" t="s">
         <v>37</v>
       </c>
@@ -4210,16 +6148,16 @@
         <v>1</v>
       </c>
       <c r="P50" s="5">
-        <v>33908</v>
+        <v>33955</v>
       </c>
       <c r="Q50">
-        <v>9248543666</v>
+        <v>9248543713</v>
       </c>
       <c r="R50" s="6" t="s">
         <v>40</v>
       </c>
       <c r="S50" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T50">
         <v>4412</v>
@@ -4227,38 +6165,53 @@
       <c r="U50">
         <v>294943</v>
       </c>
-      <c r="V50">
-        <v>11111111111</v>
+      <c r="V50" s="12">
+        <v>12345678912</v>
       </c>
       <c r="W50">
         <v>1111111111111110</v>
       </c>
-      <c r="AK50">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK51">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK52">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK53">
-        <v>51</v>
+      <c r="X50" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y50" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z50" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA50" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB50" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC50" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD50" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -4269,57 +6222,175 @@
     <mergeCell ref="X1:AD1"/>
     <mergeCell ref="AE1:AK1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I3:I1048576" xr:uid="{B2185E81-1AED-46C6-8F3F-15689552BED2}">
+      <formula1>result</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 J3:J1048576" xr:uid="{D434E6A2-8AF1-4EA7-A3EC-6BA53E56892A}">
+      <formula1>type</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1 O3:O1048576" xr:uid="{04A52343-0A46-40D5-BEA8-0C05DA9E36F5}">
+      <formula1>sex</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 G1:H1 P1 P3:P1048576 G3:H1048576 C3:C1048576" xr:uid="{9EEDFF05-9B0D-49C8-BEFB-17E8FA5811F0}">
+      <formula1>25569</formula1>
+      <formula2>146463</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1 Q3:Q1048576" xr:uid="{C042C297-E0A1-4EBA-8B38-7BB9B08567C6}">
+      <formula1>10000000000</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1 S3:S1048576" xr:uid="{19F0BEEA-24BF-44C5-9F63-A5B5FEF1EF2B}">
+      <formula1>documentType</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3:B1048576" xr:uid="{51346F1D-DED2-41AA-BEED-294D482CA33C}">
+      <formula1>10000000000000</formula1>
+    </dataValidation>
+    <dataValidation operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 Q2 V2" xr:uid="{DAE6D93B-B9B8-4469-AFFE-6AEF4484F90F}"/>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1 V3:V1048576" xr:uid="{A36004F0-36CC-4608-BA86-DC052446C073}">
+      <formula1>100000000000</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W1048576" xr:uid="{DEDFBFC7-0A06-4CF2-8D73-9EFBC3F8E4BF}">
+      <formula1>1000000000000000</formula1>
+      <formula2>10000000000000000</formula2>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="R3" r:id="rId1" xr:uid="{989F91F0-DA49-42C8-9132-DDDEDFD1178D}"/>
-    <hyperlink ref="R4" r:id="rId2" xr:uid="{17FCF68B-1CAA-45E9-900D-A5D0C60DB392}"/>
-    <hyperlink ref="R5" r:id="rId3" xr:uid="{5FEC8DAD-C0F1-4C84-A674-CD1E6763BD8D}"/>
-    <hyperlink ref="R6" r:id="rId4" xr:uid="{EF7F198B-2245-482D-B2E9-35B3BC8E2A31}"/>
-    <hyperlink ref="R7" r:id="rId5" xr:uid="{FB98E1EB-2D93-4C8C-ACED-6DDC25B0F528}"/>
-    <hyperlink ref="R8" r:id="rId6" xr:uid="{92F2ECEA-9896-49D4-B493-4CDBC6ADA05D}"/>
-    <hyperlink ref="R9" r:id="rId7" xr:uid="{5DBC48EF-CDDF-4330-8374-FD4DD5C95BC7}"/>
-    <hyperlink ref="R10" r:id="rId8" xr:uid="{F9637623-5B2F-4C10-AA15-632033CB1BC6}"/>
-    <hyperlink ref="R11" r:id="rId9" xr:uid="{B2CD76AC-458E-4B3A-A1E1-02DE04560B6F}"/>
-    <hyperlink ref="R12" r:id="rId10" xr:uid="{A4BF08C4-72A3-415C-8DCE-B99039C95C48}"/>
-    <hyperlink ref="R13" r:id="rId11" xr:uid="{D36B98D7-5A9A-4912-8BAE-0AF345C5D237}"/>
-    <hyperlink ref="R14" r:id="rId12" xr:uid="{2E5E7E70-C8A5-4E47-A1E1-1F41AF39E85B}"/>
-    <hyperlink ref="R15" r:id="rId13" xr:uid="{BBA0623C-5E29-4FEA-B48A-53CF4F1EC910}"/>
-    <hyperlink ref="R16" r:id="rId14" xr:uid="{B691199D-1D34-4C8D-968A-E38B648C9CAB}"/>
-    <hyperlink ref="R17" r:id="rId15" xr:uid="{95DD925E-A355-456B-B547-AA55D6E756EA}"/>
-    <hyperlink ref="R18" r:id="rId16" xr:uid="{470D05D0-EF9A-4563-9215-76463AF86AFF}"/>
-    <hyperlink ref="R19" r:id="rId17" xr:uid="{D20731BD-8ACB-486B-A73F-9A03BCB5873D}"/>
-    <hyperlink ref="R20" r:id="rId18" xr:uid="{4515C416-2716-44DB-9377-545DC4B85E69}"/>
-    <hyperlink ref="R21" r:id="rId19" xr:uid="{107D6DA4-2032-495E-BA3D-48ACD6C4AD92}"/>
-    <hyperlink ref="R22" r:id="rId20" xr:uid="{A4773F1C-119D-440E-BABC-9D57859795B2}"/>
-    <hyperlink ref="R23" r:id="rId21" xr:uid="{98177452-C941-4CAB-ABA6-82BF917B71A8}"/>
-    <hyperlink ref="R24" r:id="rId22" xr:uid="{CC0CAA52-B599-45CF-B058-47C6B2FAE4C4}"/>
-    <hyperlink ref="R25" r:id="rId23" xr:uid="{E033460B-7842-4232-946F-841193DA4390}"/>
-    <hyperlink ref="R26" r:id="rId24" xr:uid="{1AC5EFF9-32B0-4E2A-9C1B-0EB7F24F4F60}"/>
-    <hyperlink ref="R27" r:id="rId25" xr:uid="{C44D0C44-A7A8-4BCE-9F12-A46D37FF58AA}"/>
-    <hyperlink ref="R28" r:id="rId26" xr:uid="{80ABADD1-830B-4B87-A029-567F10E30E0C}"/>
-    <hyperlink ref="R29" r:id="rId27" xr:uid="{FB1ADDF1-1CF2-4526-B5EB-AF8B4541B4EF}"/>
-    <hyperlink ref="R30" r:id="rId28" xr:uid="{5355FD49-8F6A-4A9C-819A-5DC0FBD62FF8}"/>
-    <hyperlink ref="R31" r:id="rId29" xr:uid="{2715A638-48FD-4C95-BE71-D7E78F2822F8}"/>
-    <hyperlink ref="R32" r:id="rId30" xr:uid="{A0A6D2D4-B8A9-4885-BA80-CD96A363FF49}"/>
-    <hyperlink ref="R33" r:id="rId31" xr:uid="{8C530CE5-CD06-41F3-A290-997F4A06A5F4}"/>
-    <hyperlink ref="R34" r:id="rId32" xr:uid="{ADEB6A95-4980-41D2-915E-8CCE3A322BE8}"/>
-    <hyperlink ref="R35" r:id="rId33" xr:uid="{9E1056C3-6956-46BD-A7EF-52C6DD1159E2}"/>
-    <hyperlink ref="R36" r:id="rId34" xr:uid="{B34AEC99-A82B-4074-BFD6-6F7FC5DC6899}"/>
-    <hyperlink ref="R37" r:id="rId35" xr:uid="{2D2E9EEC-A46B-47AD-826E-33FE3BBE9E4C}"/>
-    <hyperlink ref="R38" r:id="rId36" xr:uid="{58B90DED-9B44-4FBE-9431-D52AF0C74199}"/>
-    <hyperlink ref="R39" r:id="rId37" xr:uid="{079084BD-AB40-4DAD-9E98-E3D1E1E0C508}"/>
-    <hyperlink ref="R40" r:id="rId38" xr:uid="{96C448F5-2193-45A6-89CF-BCD23706C2EF}"/>
-    <hyperlink ref="R41" r:id="rId39" xr:uid="{5F808492-0DE8-4824-9551-48A7728EC372}"/>
-    <hyperlink ref="R42" r:id="rId40" xr:uid="{04C818BF-6DFD-41E5-9114-822C921BEE4F}"/>
-    <hyperlink ref="R43" r:id="rId41" xr:uid="{7F2740E9-92E5-40E0-BF82-A9E758E00401}"/>
-    <hyperlink ref="R44" r:id="rId42" xr:uid="{1A3A3360-CBE5-49D5-A13A-90E388D885EA}"/>
-    <hyperlink ref="R45" r:id="rId43" xr:uid="{FF4D8CD7-B8BE-42FA-82E2-13A02DABB5EC}"/>
-    <hyperlink ref="R46" r:id="rId44" xr:uid="{702B9142-7697-43BB-974B-97FF5023678A}"/>
-    <hyperlink ref="R47" r:id="rId45" xr:uid="{837815EE-C87B-4355-A427-C1E37520C4E8}"/>
-    <hyperlink ref="R48" r:id="rId46" xr:uid="{75EA459E-ABB7-41DE-8AD6-0A541399E47B}"/>
-    <hyperlink ref="R49" r:id="rId47" xr:uid="{AFF30C42-366B-4D4B-A41F-1D332FFE5169}"/>
-    <hyperlink ref="R50" r:id="rId48" xr:uid="{E2289ADB-885F-4ACE-A47B-BA4D50C23BB2}"/>
+    <hyperlink ref="R4" r:id="rId2" xr:uid="{99005CC2-52BD-4B00-ABBB-9A4A9AFBF509}"/>
+    <hyperlink ref="R5" r:id="rId3" xr:uid="{58061A21-EF06-4C47-A4DB-3732730DCB2B}"/>
+    <hyperlink ref="R6" r:id="rId4" xr:uid="{E9ED1DCC-F9DA-4D2D-AE80-DE12A89E8D9B}"/>
+    <hyperlink ref="R7" r:id="rId5" xr:uid="{F60E42A6-8093-4F44-801C-D6F933D03622}"/>
+    <hyperlink ref="R8" r:id="rId6" xr:uid="{39FD35FD-A84B-47D4-87D6-BAA2B6AA8E03}"/>
+    <hyperlink ref="R9" r:id="rId7" xr:uid="{8747DD91-FA27-4BDF-B2FE-9606E1C0001C}"/>
+    <hyperlink ref="R10" r:id="rId8" xr:uid="{09B2519D-BE83-4AF5-B11B-4FC4AEF6B58A}"/>
+    <hyperlink ref="R11" r:id="rId9" xr:uid="{E3952651-1729-45BD-956E-923915C941C8}"/>
+    <hyperlink ref="R12" r:id="rId10" xr:uid="{956B14C7-91D5-4FBC-8AAC-69AAD8F387B7}"/>
+    <hyperlink ref="R13" r:id="rId11" xr:uid="{A12126F4-1D91-4212-98BE-A1C9389AD70B}"/>
+    <hyperlink ref="R14" r:id="rId12" xr:uid="{9E225802-B25C-4E8F-BFFE-45A21F5A023F}"/>
+    <hyperlink ref="R15" r:id="rId13" xr:uid="{F47DE972-4798-4498-A7B1-7E2F72278DD2}"/>
+    <hyperlink ref="R16" r:id="rId14" xr:uid="{5568740B-D49A-4436-A60D-3EE14026FD8E}"/>
+    <hyperlink ref="R17" r:id="rId15" xr:uid="{6F7A086B-FB97-4487-B90D-0CB735723239}"/>
+    <hyperlink ref="R18" r:id="rId16" xr:uid="{82DBF565-C6FB-49B5-AC7C-3FF867EC7665}"/>
+    <hyperlink ref="R19" r:id="rId17" xr:uid="{511C6921-4198-49F9-8EF2-77F99F3AB790}"/>
+    <hyperlink ref="R20" r:id="rId18" xr:uid="{EFC9BFED-CA4D-4DC9-970B-EDD6308F1093}"/>
+    <hyperlink ref="R21" r:id="rId19" xr:uid="{37EAB1ED-0FB0-4693-8C5A-9AD5D2F09EA2}"/>
+    <hyperlink ref="R22" r:id="rId20" xr:uid="{3C9530DE-1225-4C09-A495-1C64847E2F88}"/>
+    <hyperlink ref="R23" r:id="rId21" xr:uid="{DD10D916-8FD0-4D73-A4B9-3FEA24002A87}"/>
+    <hyperlink ref="R24" r:id="rId22" xr:uid="{16F59D4A-C588-4D99-AA7A-5E0A553CBBEF}"/>
+    <hyperlink ref="R25" r:id="rId23" xr:uid="{AEB4F825-9283-48EE-BBDE-841E730913A2}"/>
+    <hyperlink ref="R26" r:id="rId24" xr:uid="{A9C09F70-75B9-4D44-A366-C4E0BF7D41AB}"/>
+    <hyperlink ref="R27" r:id="rId25" xr:uid="{5F1CD222-8AC2-40FF-AED4-196209C2C9FD}"/>
+    <hyperlink ref="R28" r:id="rId26" xr:uid="{AC8078B2-3D3A-4115-BE14-EE930C5AAEDC}"/>
+    <hyperlink ref="R29" r:id="rId27" xr:uid="{1680455E-1D62-4812-A6BD-D634DB5B694E}"/>
+    <hyperlink ref="R30" r:id="rId28" xr:uid="{7B4B9C34-217B-4E72-B285-DF9C2FACFBFE}"/>
+    <hyperlink ref="R31" r:id="rId29" xr:uid="{567E7CA6-0577-4C4E-997F-F97A9397BD37}"/>
+    <hyperlink ref="R32" r:id="rId30" xr:uid="{F3D4AD0E-3205-4307-9F10-303C31BD2455}"/>
+    <hyperlink ref="R33" r:id="rId31" xr:uid="{A588D05D-DC49-47CB-8F4B-557B9920F5C1}"/>
+    <hyperlink ref="R34" r:id="rId32" xr:uid="{9043845D-4E1B-4D57-878F-1B94E27F0DC1}"/>
+    <hyperlink ref="R35" r:id="rId33" xr:uid="{54239DB8-D54C-4262-8A62-F0096F16F885}"/>
+    <hyperlink ref="R36" r:id="rId34" xr:uid="{19A1DE7F-9B70-475B-A8E3-60E05370C16C}"/>
+    <hyperlink ref="R37" r:id="rId35" xr:uid="{245D4B67-EF16-4771-A484-1B870580AD7B}"/>
+    <hyperlink ref="R38" r:id="rId36" xr:uid="{C1170F85-981E-4AF9-94D7-C419F935FCC4}"/>
+    <hyperlink ref="R39" r:id="rId37" xr:uid="{4453D906-F4C4-471D-A550-5D36BE69AF1B}"/>
+    <hyperlink ref="R40" r:id="rId38" xr:uid="{7004D584-5188-411E-A4E6-00D6557635F8}"/>
+    <hyperlink ref="R41" r:id="rId39" xr:uid="{637F05A8-AC8D-409F-B9F2-22D765E43F5A}"/>
+    <hyperlink ref="R42" r:id="rId40" xr:uid="{42FA3169-DA7F-41DF-9348-DFA9A2084CB0}"/>
+    <hyperlink ref="R43" r:id="rId41" xr:uid="{F766BC9D-9DB4-42EA-A541-AE2EB9D7BE87}"/>
+    <hyperlink ref="R44" r:id="rId42" xr:uid="{C06C3116-E772-411E-B531-F0E3EF60A20A}"/>
+    <hyperlink ref="R45" r:id="rId43" xr:uid="{84A60E0F-43E8-4BC9-A1A0-76616F18FEA9}"/>
+    <hyperlink ref="R46" r:id="rId44" xr:uid="{5F78D519-5B62-49E8-9F7E-867FDDEEBBFC}"/>
+    <hyperlink ref="R47" r:id="rId45" xr:uid="{F8F3C584-FEAD-4C03-96C8-5EB1B1B8967F}"/>
+    <hyperlink ref="R48" r:id="rId46" xr:uid="{C2C47A6F-D70E-4379-890B-ECAF3841BB51}"/>
+    <hyperlink ref="R49" r:id="rId47" xr:uid="{51C02767-69A3-474A-939F-FC8D4C15D130}"/>
+    <hyperlink ref="R50" r:id="rId48" xr:uid="{847FF794-5B1A-4F97-BBF4-E783719E951A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId49"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0345E79D-650E-4A8A-B585-2E2EBA47D3BC}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A4" xr:uid="{411FA504-A18A-4AAB-9058-9FE97BD9D7A0}">
+      <formula1>Результат</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/templates/template.xlsx
+++ b/templates/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GIT CLONES\NII_EIAS\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-37\Desktop\FBUZ\NII_EIAS\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB5F1E7-C6B1-4828-9DDF-5E7563E42BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC487EF-14E9-4900-A72A-B3FFD0481638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1155" yWindow="6045" windowWidth="2400" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="55">
   <si>
     <t>Название</t>
   </si>
@@ -204,12 +204,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,7 +260,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -363,54 +371,39 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -693,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK50"/>
+  <dimension ref="A1:AK52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,56 +715,57 @@
     <col min="23" max="23" width="12.7109375" customWidth="1"/>
     <col min="29" max="29" width="10.42578125" customWidth="1"/>
     <col min="36" max="36" width="10" customWidth="1"/>
+    <col min="37" max="37" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="7" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="7" t="s">
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="10" t="s">
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="9"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="11"/>
     </row>
     <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -853,37 +847,37 @@
         <v>27</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -893,7 +887,7 @@
       <c r="B3">
         <v>1111111111111</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>44208</v>
       </c>
       <c r="D3">
@@ -905,10 +899,10 @@
       <c r="F3" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="G3" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H3" s="4">
         <v>44414</v>
       </c>
       <c r="I3" t="s">
@@ -917,7 +911,7 @@
       <c r="J3" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="11"/>
+      <c r="K3" s="6"/>
       <c r="L3" t="s">
         <v>37</v>
       </c>
@@ -930,13 +924,13 @@
       <c r="O3">
         <v>1</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
         <v>33908</v>
       </c>
       <c r="Q3">
         <v>9248543666</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S3" t="s">
@@ -948,53 +942,53 @@
       <c r="U3">
         <v>294943</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V3" s="7">
         <v>12345678912</v>
       </c>
       <c r="W3">
         <v>1111111111111110</v>
       </c>
-      <c r="X3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z3" s="13" t="s">
+      <c r="X3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="AA3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="8" t="s">
         <v>28</v>
       </c>
       <c r="AC3" s="13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AD3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK3" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
@@ -1004,7 +998,7 @@
       <c r="B4">
         <v>1111111111112</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>44209</v>
       </c>
       <c r="D4">
@@ -1016,10 +1010,10 @@
       <c r="F4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="G4" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H4" s="4">
         <v>44414</v>
       </c>
       <c r="I4" t="s">
@@ -1028,7 +1022,7 @@
       <c r="J4" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="11"/>
+      <c r="K4" s="6"/>
       <c r="L4" t="s">
         <v>37</v>
       </c>
@@ -1041,13 +1035,13 @@
       <c r="O4">
         <v>1</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="4">
         <v>33909</v>
       </c>
       <c r="Q4">
         <v>9248543667</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S4" t="s">
@@ -1059,31 +1053,31 @@
       <c r="U4">
         <v>294943</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="7">
         <v>12345678912</v>
       </c>
       <c r="W4">
         <v>1111111111111110</v>
       </c>
-      <c r="X4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD4" s="13" t="s">
+      <c r="X4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD4" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE4" t="s">
@@ -1115,7 +1109,7 @@
       <c r="B5">
         <v>1111111111113</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>44210</v>
       </c>
       <c r="D5">
@@ -1127,10 +1121,10 @@
       <c r="F5" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="G5" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H5" s="4">
         <v>44414</v>
       </c>
       <c r="I5" t="s">
@@ -1139,7 +1133,7 @@
       <c r="J5" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="11"/>
+      <c r="K5" s="6"/>
       <c r="L5" t="s">
         <v>37</v>
       </c>
@@ -1152,13 +1146,13 @@
       <c r="O5">
         <v>1</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="4">
         <v>33910</v>
       </c>
       <c r="Q5">
         <v>9248543668</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S5" t="s">
@@ -1170,31 +1164,31 @@
       <c r="U5">
         <v>294943</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V5" s="7">
         <v>12345678912</v>
       </c>
       <c r="W5">
         <v>1111111111111110</v>
       </c>
-      <c r="X5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD5" s="13" t="s">
+      <c r="X5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD5" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE5" t="s">
@@ -1226,7 +1220,7 @@
       <c r="B6">
         <v>1111111111114</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>44211</v>
       </c>
       <c r="D6">
@@ -1238,10 +1232,10 @@
       <c r="F6" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="G6" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H6" s="4">
         <v>44414</v>
       </c>
       <c r="I6" t="s">
@@ -1250,7 +1244,7 @@
       <c r="J6" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="11"/>
+      <c r="K6" s="6"/>
       <c r="L6" t="s">
         <v>37</v>
       </c>
@@ -1263,13 +1257,13 @@
       <c r="O6">
         <v>1</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="4">
         <v>33911</v>
       </c>
       <c r="Q6">
         <v>9248543669</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S6" t="s">
@@ -1281,31 +1275,31 @@
       <c r="U6">
         <v>294943</v>
       </c>
-      <c r="V6" s="12">
+      <c r="V6" s="7">
         <v>12345678912</v>
       </c>
       <c r="W6">
         <v>1111111111111110</v>
       </c>
-      <c r="X6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD6" s="13" t="s">
+      <c r="X6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD6" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE6" t="s">
@@ -1337,7 +1331,7 @@
       <c r="B7">
         <v>1111111111115</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>44212</v>
       </c>
       <c r="D7">
@@ -1349,10 +1343,10 @@
       <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="G7" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H7" s="4">
         <v>44414</v>
       </c>
       <c r="I7" t="s">
@@ -1361,7 +1355,7 @@
       <c r="J7" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="11"/>
+      <c r="K7" s="6"/>
       <c r="L7" t="s">
         <v>37</v>
       </c>
@@ -1374,13 +1368,13 @@
       <c r="O7">
         <v>1</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="4">
         <v>33912</v>
       </c>
       <c r="Q7">
         <v>9248543670</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="R7" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S7" t="s">
@@ -1392,31 +1386,31 @@
       <c r="U7">
         <v>294943</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="7">
         <v>12345678912</v>
       </c>
       <c r="W7">
         <v>1111111111111110</v>
       </c>
-      <c r="X7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD7" s="13" t="s">
+      <c r="X7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD7" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE7" t="s">
@@ -1448,7 +1442,7 @@
       <c r="B8">
         <v>1111111111116</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>44213</v>
       </c>
       <c r="D8">
@@ -1460,10 +1454,10 @@
       <c r="F8" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="G8" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H8" s="4">
         <v>44414</v>
       </c>
       <c r="I8" t="s">
@@ -1472,7 +1466,7 @@
       <c r="J8" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="11"/>
+      <c r="K8" s="6"/>
       <c r="L8" t="s">
         <v>37</v>
       </c>
@@ -1485,13 +1479,13 @@
       <c r="O8">
         <v>1</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="4">
         <v>33913</v>
       </c>
       <c r="Q8">
         <v>9248543671</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S8" t="s">
@@ -1503,31 +1497,31 @@
       <c r="U8">
         <v>294943</v>
       </c>
-      <c r="V8" s="12">
+      <c r="V8" s="7">
         <v>12345678912</v>
       </c>
       <c r="W8">
         <v>1111111111111110</v>
       </c>
-      <c r="X8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD8" s="13" t="s">
+      <c r="X8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD8" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE8" t="s">
@@ -1559,7 +1553,7 @@
       <c r="B9">
         <v>1111111111117</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>44214</v>
       </c>
       <c r="D9">
@@ -1571,10 +1565,10 @@
       <c r="F9" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="G9" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H9" s="4">
         <v>44414</v>
       </c>
       <c r="I9" t="s">
@@ -1583,7 +1577,7 @@
       <c r="J9" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="11"/>
+      <c r="K9" s="6"/>
       <c r="L9" t="s">
         <v>37</v>
       </c>
@@ -1596,13 +1590,13 @@
       <c r="O9">
         <v>1</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="4">
         <v>33914</v>
       </c>
       <c r="Q9">
         <v>9248543672</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R9" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S9" t="s">
@@ -1614,31 +1608,31 @@
       <c r="U9">
         <v>294943</v>
       </c>
-      <c r="V9" s="12">
+      <c r="V9" s="7">
         <v>12345678912</v>
       </c>
       <c r="W9">
         <v>1111111111111110</v>
       </c>
-      <c r="X9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA9" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD9" s="13" t="s">
+      <c r="X9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD9" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE9" t="s">
@@ -1653,7 +1647,7 @@
       <c r="AH9" t="s">
         <v>33</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AI9" s="13" t="s">
         <v>28</v>
       </c>
       <c r="AJ9" t="s">
@@ -1670,7 +1664,7 @@
       <c r="B10">
         <v>1111111111118</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>44215</v>
       </c>
       <c r="D10">
@@ -1682,10 +1676,10 @@
       <c r="F10" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="G10" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H10" s="4">
         <v>44414</v>
       </c>
       <c r="I10" t="s">
@@ -1694,7 +1688,7 @@
       <c r="J10" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="11"/>
+      <c r="K10" s="6"/>
       <c r="L10" t="s">
         <v>37</v>
       </c>
@@ -1707,13 +1701,13 @@
       <c r="O10">
         <v>1</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="4">
         <v>33915</v>
       </c>
       <c r="Q10">
         <v>9248543673</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="R10" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S10" t="s">
@@ -1725,31 +1719,31 @@
       <c r="U10">
         <v>294943</v>
       </c>
-      <c r="V10" s="12">
+      <c r="V10" s="7">
         <v>12345678912</v>
       </c>
       <c r="W10">
         <v>1111111111111110</v>
       </c>
-      <c r="X10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD10" s="13" t="s">
+      <c r="X10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD10" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE10" t="s">
@@ -1781,7 +1775,7 @@
       <c r="B11">
         <v>1111111111119</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>44216</v>
       </c>
       <c r="D11">
@@ -1793,10 +1787,10 @@
       <c r="F11" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="G11" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H11" s="4">
         <v>44414</v>
       </c>
       <c r="I11" t="s">
@@ -1805,7 +1799,7 @@
       <c r="J11" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="11"/>
+      <c r="K11" s="6"/>
       <c r="L11" t="s">
         <v>37</v>
       </c>
@@ -1818,13 +1812,13 @@
       <c r="O11">
         <v>1</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="4">
         <v>33916</v>
       </c>
       <c r="Q11">
         <v>9248543674</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="R11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S11" t="s">
@@ -1836,31 +1830,31 @@
       <c r="U11">
         <v>294943</v>
       </c>
-      <c r="V11" s="12">
+      <c r="V11" s="7">
         <v>12345678912</v>
       </c>
       <c r="W11">
         <v>1111111111111110</v>
       </c>
-      <c r="X11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD11" s="13" t="s">
+      <c r="X11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD11" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE11" t="s">
@@ -1892,7 +1886,7 @@
       <c r="B12">
         <v>1111111111120</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>44217</v>
       </c>
       <c r="D12">
@@ -1904,10 +1898,10 @@
       <c r="F12" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H12" s="5">
+      <c r="G12" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H12" s="4">
         <v>44414</v>
       </c>
       <c r="I12" t="s">
@@ -1916,7 +1910,7 @@
       <c r="J12" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="11"/>
+      <c r="K12" s="6"/>
       <c r="L12" t="s">
         <v>37</v>
       </c>
@@ -1929,13 +1923,13 @@
       <c r="O12">
         <v>1</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
         <v>33917</v>
       </c>
       <c r="Q12">
         <v>9248543675</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="R12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S12" t="s">
@@ -1947,31 +1941,31 @@
       <c r="U12">
         <v>294943</v>
       </c>
-      <c r="V12" s="12">
+      <c r="V12" s="7">
         <v>12345678912</v>
       </c>
       <c r="W12">
         <v>1111111111111110</v>
       </c>
-      <c r="X12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD12" s="13" t="s">
+      <c r="X12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD12" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE12" t="s">
@@ -2003,7 +1997,7 @@
       <c r="B13">
         <v>1111111111121</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>44218</v>
       </c>
       <c r="D13">
@@ -2015,10 +2009,10 @@
       <c r="F13" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="G13" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H13" s="4">
         <v>44414</v>
       </c>
       <c r="I13" t="s">
@@ -2027,7 +2021,7 @@
       <c r="J13" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="11"/>
+      <c r="K13" s="6"/>
       <c r="L13" t="s">
         <v>37</v>
       </c>
@@ -2040,13 +2034,13 @@
       <c r="O13">
         <v>1</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="4">
         <v>33918</v>
       </c>
       <c r="Q13">
         <v>9248543676</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="R13" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S13" t="s">
@@ -2058,31 +2052,31 @@
       <c r="U13">
         <v>294943</v>
       </c>
-      <c r="V13" s="12">
+      <c r="V13" s="7">
         <v>12345678912</v>
       </c>
       <c r="W13">
         <v>1111111111111110</v>
       </c>
-      <c r="X13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD13" s="13" t="s">
+      <c r="X13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD13" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE13" t="s">
@@ -2114,7 +2108,7 @@
       <c r="B14">
         <v>1111111111122</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>44219</v>
       </c>
       <c r="D14">
@@ -2126,10 +2120,10 @@
       <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H14" s="5">
+      <c r="G14" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H14" s="4">
         <v>44414</v>
       </c>
       <c r="I14" t="s">
@@ -2138,7 +2132,7 @@
       <c r="J14" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="11"/>
+      <c r="K14" s="6"/>
       <c r="L14" t="s">
         <v>37</v>
       </c>
@@ -2151,13 +2145,13 @@
       <c r="O14">
         <v>1</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="4">
         <v>33919</v>
       </c>
       <c r="Q14">
         <v>9248543677</v>
       </c>
-      <c r="R14" s="6" t="s">
+      <c r="R14" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S14" t="s">
@@ -2169,31 +2163,31 @@
       <c r="U14">
         <v>294943</v>
       </c>
-      <c r="V14" s="12">
+      <c r="V14" s="7">
         <v>12345678912</v>
       </c>
       <c r="W14">
         <v>1111111111111110</v>
       </c>
-      <c r="X14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD14" s="13" t="s">
+      <c r="X14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD14" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE14" t="s">
@@ -2225,7 +2219,7 @@
       <c r="B15">
         <v>1111111111123</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>44220</v>
       </c>
       <c r="D15">
@@ -2237,10 +2231,10 @@
       <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H15" s="5">
+      <c r="G15" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H15" s="4">
         <v>44414</v>
       </c>
       <c r="I15" t="s">
@@ -2249,7 +2243,7 @@
       <c r="J15" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="11"/>
+      <c r="K15" s="6"/>
       <c r="L15" t="s">
         <v>37</v>
       </c>
@@ -2262,13 +2256,13 @@
       <c r="O15">
         <v>1</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="4">
         <v>33920</v>
       </c>
       <c r="Q15">
         <v>9248543678</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="R15" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S15" t="s">
@@ -2280,31 +2274,31 @@
       <c r="U15">
         <v>294943</v>
       </c>
-      <c r="V15" s="12">
+      <c r="V15" s="7">
         <v>12345678912</v>
       </c>
       <c r="W15">
         <v>1111111111111110</v>
       </c>
-      <c r="X15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD15" s="13" t="s">
+      <c r="X15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD15" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE15" t="s">
@@ -2336,7 +2330,7 @@
       <c r="B16">
         <v>1111111111124</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>44221</v>
       </c>
       <c r="D16">
@@ -2348,10 +2342,10 @@
       <c r="F16" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H16" s="5">
+      <c r="G16" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H16" s="4">
         <v>44414</v>
       </c>
       <c r="I16" t="s">
@@ -2360,7 +2354,7 @@
       <c r="J16" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="11"/>
+      <c r="K16" s="6"/>
       <c r="L16" t="s">
         <v>37</v>
       </c>
@@ -2373,13 +2367,13 @@
       <c r="O16">
         <v>1</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="4">
         <v>33921</v>
       </c>
       <c r="Q16">
         <v>9248543679</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="R16" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S16" t="s">
@@ -2391,31 +2385,31 @@
       <c r="U16">
         <v>294943</v>
       </c>
-      <c r="V16" s="12">
+      <c r="V16" s="7">
         <v>12345678912</v>
       </c>
       <c r="W16">
         <v>1111111111111110</v>
       </c>
-      <c r="X16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y16" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB16" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD16" s="13" t="s">
+      <c r="X16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD16" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE16" t="s">
@@ -2447,7 +2441,7 @@
       <c r="B17">
         <v>1111111111125</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>44222</v>
       </c>
       <c r="D17">
@@ -2459,10 +2453,10 @@
       <c r="F17" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H17" s="5">
+      <c r="G17" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H17" s="4">
         <v>44414</v>
       </c>
       <c r="I17" t="s">
@@ -2471,7 +2465,7 @@
       <c r="J17" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="11"/>
+      <c r="K17" s="6"/>
       <c r="L17" t="s">
         <v>37</v>
       </c>
@@ -2484,13 +2478,13 @@
       <c r="O17">
         <v>1</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="4">
         <v>33922</v>
       </c>
       <c r="Q17">
         <v>9248543680</v>
       </c>
-      <c r="R17" s="6" t="s">
+      <c r="R17" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S17" t="s">
@@ -2502,31 +2496,31 @@
       <c r="U17">
         <v>294943</v>
       </c>
-      <c r="V17" s="12">
+      <c r="V17" s="7">
         <v>12345678912</v>
       </c>
       <c r="W17">
         <v>1111111111111110</v>
       </c>
-      <c r="X17" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB17" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD17" s="13" t="s">
+      <c r="X17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD17" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE17" t="s">
@@ -2558,7 +2552,7 @@
       <c r="B18">
         <v>1111111111126</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>44223</v>
       </c>
       <c r="D18">
@@ -2570,10 +2564,10 @@
       <c r="F18" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H18" s="5">
+      <c r="G18" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H18" s="4">
         <v>44414</v>
       </c>
       <c r="I18" t="s">
@@ -2582,7 +2576,7 @@
       <c r="J18" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="11"/>
+      <c r="K18" s="6"/>
       <c r="L18" t="s">
         <v>37</v>
       </c>
@@ -2595,13 +2589,13 @@
       <c r="O18">
         <v>1</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" s="4">
         <v>33923</v>
       </c>
       <c r="Q18">
         <v>9248543681</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="R18" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S18" t="s">
@@ -2613,31 +2607,31 @@
       <c r="U18">
         <v>294943</v>
       </c>
-      <c r="V18" s="12">
+      <c r="V18" s="7">
         <v>12345678912</v>
       </c>
       <c r="W18">
         <v>1111111111111110</v>
       </c>
-      <c r="X18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y18" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB18" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD18" s="13" t="s">
+      <c r="X18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD18" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE18" t="s">
@@ -2669,7 +2663,7 @@
       <c r="B19">
         <v>1111111111127</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>44224</v>
       </c>
       <c r="D19">
@@ -2681,10 +2675,10 @@
       <c r="F19" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H19" s="5">
+      <c r="G19" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H19" s="4">
         <v>44414</v>
       </c>
       <c r="I19" t="s">
@@ -2693,7 +2687,7 @@
       <c r="J19" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="11"/>
+      <c r="K19" s="6"/>
       <c r="L19" t="s">
         <v>37</v>
       </c>
@@ -2706,13 +2700,13 @@
       <c r="O19">
         <v>1</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="4">
         <v>33924</v>
       </c>
       <c r="Q19">
         <v>9248543682</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="R19" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S19" t="s">
@@ -2724,31 +2718,31 @@
       <c r="U19">
         <v>294943</v>
       </c>
-      <c r="V19" s="12">
+      <c r="V19" s="7">
         <v>12345678912</v>
       </c>
       <c r="W19">
         <v>1111111111111110</v>
       </c>
-      <c r="X19" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y19" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB19" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC19" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD19" s="13" t="s">
+      <c r="X19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD19" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE19" t="s">
@@ -2780,7 +2774,7 @@
       <c r="B20">
         <v>1111111111128</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>44225</v>
       </c>
       <c r="D20">
@@ -2792,10 +2786,10 @@
       <c r="F20" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H20" s="5">
+      <c r="G20" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H20" s="4">
         <v>44414</v>
       </c>
       <c r="I20" t="s">
@@ -2804,7 +2798,7 @@
       <c r="J20" t="s">
         <v>45</v>
       </c>
-      <c r="K20" s="11"/>
+      <c r="K20" s="6"/>
       <c r="L20" t="s">
         <v>37</v>
       </c>
@@ -2817,13 +2811,13 @@
       <c r="O20">
         <v>1</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P20" s="4">
         <v>33925</v>
       </c>
       <c r="Q20">
         <v>9248543683</v>
       </c>
-      <c r="R20" s="6" t="s">
+      <c r="R20" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S20" t="s">
@@ -2835,31 +2829,31 @@
       <c r="U20">
         <v>294943</v>
       </c>
-      <c r="V20" s="12">
+      <c r="V20" s="7">
         <v>12345678912</v>
       </c>
       <c r="W20">
         <v>1111111111111110</v>
       </c>
-      <c r="X20" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y20" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z20" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB20" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC20" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD20" s="13" t="s">
+      <c r="X20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD20" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE20" t="s">
@@ -2891,7 +2885,7 @@
       <c r="B21">
         <v>1111111111129</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>44226</v>
       </c>
       <c r="D21">
@@ -2903,10 +2897,10 @@
       <c r="F21" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H21" s="5">
+      <c r="G21" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H21" s="4">
         <v>44414</v>
       </c>
       <c r="I21" t="s">
@@ -2915,7 +2909,7 @@
       <c r="J21" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="11"/>
+      <c r="K21" s="6"/>
       <c r="L21" t="s">
         <v>37</v>
       </c>
@@ -2928,13 +2922,13 @@
       <c r="O21">
         <v>1</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21" s="4">
         <v>33926</v>
       </c>
       <c r="Q21">
         <v>9248543684</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="R21" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S21" t="s">
@@ -2946,31 +2940,31 @@
       <c r="U21">
         <v>294943</v>
       </c>
-      <c r="V21" s="12">
+      <c r="V21" s="7">
         <v>12345678912</v>
       </c>
       <c r="W21">
         <v>1111111111111110</v>
       </c>
-      <c r="X21" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB21" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD21" s="13" t="s">
+      <c r="X21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD21" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE21" t="s">
@@ -3002,7 +2996,7 @@
       <c r="B22">
         <v>1111111111130</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>44227</v>
       </c>
       <c r="D22">
@@ -3014,10 +3008,10 @@
       <c r="F22" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H22" s="5">
+      <c r="G22" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H22" s="4">
         <v>44414</v>
       </c>
       <c r="I22" t="s">
@@ -3026,7 +3020,7 @@
       <c r="J22" t="s">
         <v>45</v>
       </c>
-      <c r="K22" s="11"/>
+      <c r="K22" s="6"/>
       <c r="L22" t="s">
         <v>37</v>
       </c>
@@ -3039,13 +3033,13 @@
       <c r="O22">
         <v>1</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="4">
         <v>33927</v>
       </c>
       <c r="Q22">
         <v>9248543685</v>
       </c>
-      <c r="R22" s="6" t="s">
+      <c r="R22" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S22" t="s">
@@ -3057,31 +3051,31 @@
       <c r="U22">
         <v>294943</v>
       </c>
-      <c r="V22" s="12">
+      <c r="V22" s="7">
         <v>12345678912</v>
       </c>
       <c r="W22">
         <v>1111111111111110</v>
       </c>
-      <c r="X22" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y22" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z22" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA22" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD22" s="13" t="s">
+      <c r="X22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD22" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE22" t="s">
@@ -3113,7 +3107,7 @@
       <c r="B23">
         <v>1111111111131</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>44228</v>
       </c>
       <c r="D23">
@@ -3125,10 +3119,10 @@
       <c r="F23" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H23" s="5">
+      <c r="G23" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H23" s="4">
         <v>44414</v>
       </c>
       <c r="I23" t="s">
@@ -3137,7 +3131,7 @@
       <c r="J23" t="s">
         <v>45</v>
       </c>
-      <c r="K23" s="11"/>
+      <c r="K23" s="6"/>
       <c r="L23" t="s">
         <v>37</v>
       </c>
@@ -3150,13 +3144,13 @@
       <c r="O23">
         <v>1</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P23" s="4">
         <v>33928</v>
       </c>
       <c r="Q23">
         <v>9248543686</v>
       </c>
-      <c r="R23" s="6" t="s">
+      <c r="R23" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S23" t="s">
@@ -3168,31 +3162,31 @@
       <c r="U23">
         <v>294943</v>
       </c>
-      <c r="V23" s="12">
+      <c r="V23" s="7">
         <v>12345678912</v>
       </c>
       <c r="W23">
         <v>1111111111111110</v>
       </c>
-      <c r="X23" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z23" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA23" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB23" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC23" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD23" s="13" t="s">
+      <c r="X23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD23" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE23" t="s">
@@ -3224,7 +3218,7 @@
       <c r="B24">
         <v>1111111111132</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>44229</v>
       </c>
       <c r="D24">
@@ -3236,10 +3230,10 @@
       <c r="F24" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H24" s="5">
+      <c r="G24" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H24" s="4">
         <v>44414</v>
       </c>
       <c r="I24" t="s">
@@ -3248,7 +3242,7 @@
       <c r="J24" t="s">
         <v>45</v>
       </c>
-      <c r="K24" s="11"/>
+      <c r="K24" s="6"/>
       <c r="L24" t="s">
         <v>37</v>
       </c>
@@ -3261,13 +3255,13 @@
       <c r="O24">
         <v>1</v>
       </c>
-      <c r="P24" s="5">
+      <c r="P24" s="4">
         <v>33929</v>
       </c>
       <c r="Q24">
         <v>9248543687</v>
       </c>
-      <c r="R24" s="6" t="s">
+      <c r="R24" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S24" t="s">
@@ -3279,31 +3273,31 @@
       <c r="U24">
         <v>294943</v>
       </c>
-      <c r="V24" s="12">
+      <c r="V24" s="7">
         <v>12345678912</v>
       </c>
       <c r="W24">
         <v>1111111111111110</v>
       </c>
-      <c r="X24" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y24" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z24" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA24" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB24" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD24" s="13" t="s">
+      <c r="X24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD24" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE24" t="s">
@@ -3335,7 +3329,7 @@
       <c r="B25">
         <v>1111111111133</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>44230</v>
       </c>
       <c r="D25">
@@ -3347,10 +3341,10 @@
       <c r="F25" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H25" s="5">
+      <c r="G25" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H25" s="4">
         <v>44414</v>
       </c>
       <c r="I25" t="s">
@@ -3359,7 +3353,7 @@
       <c r="J25" t="s">
         <v>45</v>
       </c>
-      <c r="K25" s="11"/>
+      <c r="K25" s="6"/>
       <c r="L25" t="s">
         <v>37</v>
       </c>
@@ -3372,13 +3366,13 @@
       <c r="O25">
         <v>1</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P25" s="4">
         <v>33930</v>
       </c>
       <c r="Q25">
         <v>9248543688</v>
       </c>
-      <c r="R25" s="6" t="s">
+      <c r="R25" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S25" t="s">
@@ -3390,31 +3384,31 @@
       <c r="U25">
         <v>294943</v>
       </c>
-      <c r="V25" s="12">
+      <c r="V25" s="7">
         <v>12345678912</v>
       </c>
       <c r="W25">
         <v>1111111111111110</v>
       </c>
-      <c r="X25" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y25" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z25" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA25" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC25" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD25" s="13" t="s">
+      <c r="X25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD25" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE25" t="s">
@@ -3446,7 +3440,7 @@
       <c r="B26">
         <v>1111111111134</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>44231</v>
       </c>
       <c r="D26">
@@ -3458,10 +3452,10 @@
       <c r="F26" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H26" s="5">
+      <c r="G26" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H26" s="4">
         <v>44414</v>
       </c>
       <c r="I26" t="s">
@@ -3470,7 +3464,7 @@
       <c r="J26" t="s">
         <v>45</v>
       </c>
-      <c r="K26" s="11"/>
+      <c r="K26" s="6"/>
       <c r="L26" t="s">
         <v>37</v>
       </c>
@@ -3483,13 +3477,13 @@
       <c r="O26">
         <v>1</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P26" s="4">
         <v>33931</v>
       </c>
       <c r="Q26">
         <v>9248543689</v>
       </c>
-      <c r="R26" s="6" t="s">
+      <c r="R26" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S26" t="s">
@@ -3501,31 +3495,31 @@
       <c r="U26">
         <v>294943</v>
       </c>
-      <c r="V26" s="12">
+      <c r="V26" s="7">
         <v>12345678912</v>
       </c>
       <c r="W26">
         <v>1111111111111110</v>
       </c>
-      <c r="X26" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y26" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z26" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA26" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB26" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC26" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD26" s="13" t="s">
+      <c r="X26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD26" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE26" t="s">
@@ -3557,7 +3551,7 @@
       <c r="B27">
         <v>1111111111135</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>44232</v>
       </c>
       <c r="D27">
@@ -3569,10 +3563,10 @@
       <c r="F27" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H27" s="5">
+      <c r="G27" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H27" s="4">
         <v>44414</v>
       </c>
       <c r="I27" t="s">
@@ -3581,7 +3575,7 @@
       <c r="J27" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="11"/>
+      <c r="K27" s="6"/>
       <c r="L27" t="s">
         <v>37</v>
       </c>
@@ -3594,13 +3588,13 @@
       <c r="O27">
         <v>1</v>
       </c>
-      <c r="P27" s="5">
+      <c r="P27" s="4">
         <v>33932</v>
       </c>
       <c r="Q27">
         <v>9248543690</v>
       </c>
-      <c r="R27" s="6" t="s">
+      <c r="R27" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S27" t="s">
@@ -3612,31 +3606,31 @@
       <c r="U27">
         <v>294943</v>
       </c>
-      <c r="V27" s="12">
+      <c r="V27" s="7">
         <v>12345678912</v>
       </c>
       <c r="W27">
         <v>1111111111111110</v>
       </c>
-      <c r="X27" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y27" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z27" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA27" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB27" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD27" s="13" t="s">
+      <c r="X27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD27" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE27" t="s">
@@ -3668,7 +3662,7 @@
       <c r="B28">
         <v>1111111111136</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>44233</v>
       </c>
       <c r="D28">
@@ -3680,10 +3674,10 @@
       <c r="F28" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H28" s="5">
+      <c r="G28" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H28" s="4">
         <v>44414</v>
       </c>
       <c r="I28" t="s">
@@ -3692,7 +3686,7 @@
       <c r="J28" t="s">
         <v>45</v>
       </c>
-      <c r="K28" s="11"/>
+      <c r="K28" s="6"/>
       <c r="L28" t="s">
         <v>37</v>
       </c>
@@ -3705,13 +3699,13 @@
       <c r="O28">
         <v>1</v>
       </c>
-      <c r="P28" s="5">
+      <c r="P28" s="4">
         <v>33933</v>
       </c>
       <c r="Q28">
         <v>9248543691</v>
       </c>
-      <c r="R28" s="6" t="s">
+      <c r="R28" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S28" t="s">
@@ -3723,31 +3717,31 @@
       <c r="U28">
         <v>294943</v>
       </c>
-      <c r="V28" s="12">
+      <c r="V28" s="7">
         <v>12345678912</v>
       </c>
       <c r="W28">
         <v>1111111111111110</v>
       </c>
-      <c r="X28" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y28" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z28" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA28" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB28" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC28" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD28" s="13" t="s">
+      <c r="X28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD28" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE28" t="s">
@@ -3779,7 +3773,7 @@
       <c r="B29">
         <v>1111111111137</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>44234</v>
       </c>
       <c r="D29">
@@ -3791,10 +3785,10 @@
       <c r="F29" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H29" s="5">
+      <c r="G29" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H29" s="4">
         <v>44414</v>
       </c>
       <c r="I29" t="s">
@@ -3803,7 +3797,7 @@
       <c r="J29" t="s">
         <v>45</v>
       </c>
-      <c r="K29" s="11"/>
+      <c r="K29" s="6"/>
       <c r="L29" t="s">
         <v>37</v>
       </c>
@@ -3816,13 +3810,13 @@
       <c r="O29">
         <v>1</v>
       </c>
-      <c r="P29" s="5">
+      <c r="P29" s="4">
         <v>33934</v>
       </c>
       <c r="Q29">
         <v>9248543692</v>
       </c>
-      <c r="R29" s="6" t="s">
+      <c r="R29" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S29" t="s">
@@ -3834,31 +3828,31 @@
       <c r="U29">
         <v>294943</v>
       </c>
-      <c r="V29" s="12">
+      <c r="V29" s="7">
         <v>12345678912</v>
       </c>
       <c r="W29">
         <v>1111111111111110</v>
       </c>
-      <c r="X29" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y29" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z29" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA29" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB29" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC29" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD29" s="13" t="s">
+      <c r="X29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD29" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE29" t="s">
@@ -3890,7 +3884,7 @@
       <c r="B30">
         <v>1111111111138</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>44235</v>
       </c>
       <c r="D30">
@@ -3902,10 +3896,10 @@
       <c r="F30" t="s">
         <v>36</v>
       </c>
-      <c r="G30" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H30" s="5">
+      <c r="G30" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H30" s="4">
         <v>44414</v>
       </c>
       <c r="I30" t="s">
@@ -3914,7 +3908,7 @@
       <c r="J30" t="s">
         <v>45</v>
       </c>
-      <c r="K30" s="11"/>
+      <c r="K30" s="6"/>
       <c r="L30" t="s">
         <v>37</v>
       </c>
@@ -3927,13 +3921,13 @@
       <c r="O30">
         <v>1</v>
       </c>
-      <c r="P30" s="5">
+      <c r="P30" s="4">
         <v>33935</v>
       </c>
       <c r="Q30">
         <v>9248543693</v>
       </c>
-      <c r="R30" s="6" t="s">
+      <c r="R30" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S30" t="s">
@@ -3945,31 +3939,31 @@
       <c r="U30">
         <v>294943</v>
       </c>
-      <c r="V30" s="12">
+      <c r="V30" s="7">
         <v>12345678912</v>
       </c>
       <c r="W30">
         <v>1111111111111110</v>
       </c>
-      <c r="X30" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y30" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z30" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA30" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB30" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC30" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD30" s="13" t="s">
+      <c r="X30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD30" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE30" t="s">
@@ -4001,7 +3995,7 @@
       <c r="B31">
         <v>1111111111139</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>44236</v>
       </c>
       <c r="D31">
@@ -4013,10 +4007,10 @@
       <c r="F31" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H31" s="5">
+      <c r="G31" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H31" s="4">
         <v>44414</v>
       </c>
       <c r="I31" t="s">
@@ -4025,7 +4019,7 @@
       <c r="J31" t="s">
         <v>45</v>
       </c>
-      <c r="K31" s="11"/>
+      <c r="K31" s="6"/>
       <c r="L31" t="s">
         <v>37</v>
       </c>
@@ -4038,13 +4032,13 @@
       <c r="O31">
         <v>1</v>
       </c>
-      <c r="P31" s="5">
+      <c r="P31" s="4">
         <v>33936</v>
       </c>
       <c r="Q31">
         <v>9248543694</v>
       </c>
-      <c r="R31" s="6" t="s">
+      <c r="R31" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S31" t="s">
@@ -4056,31 +4050,31 @@
       <c r="U31">
         <v>294943</v>
       </c>
-      <c r="V31" s="12">
+      <c r="V31" s="7">
         <v>12345678912</v>
       </c>
       <c r="W31">
         <v>1111111111111110</v>
       </c>
-      <c r="X31" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y31" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z31" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA31" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB31" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC31" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD31" s="13" t="s">
+      <c r="X31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD31" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE31" t="s">
@@ -4112,7 +4106,7 @@
       <c r="B32">
         <v>1111111111140</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>44237</v>
       </c>
       <c r="D32">
@@ -4124,10 +4118,10 @@
       <c r="F32" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H32" s="5">
+      <c r="G32" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H32" s="4">
         <v>44414</v>
       </c>
       <c r="I32" t="s">
@@ -4136,7 +4130,7 @@
       <c r="J32" t="s">
         <v>45</v>
       </c>
-      <c r="K32" s="11"/>
+      <c r="K32" s="6"/>
       <c r="L32" t="s">
         <v>37</v>
       </c>
@@ -4149,13 +4143,13 @@
       <c r="O32">
         <v>1</v>
       </c>
-      <c r="P32" s="5">
+      <c r="P32" s="4">
         <v>33937</v>
       </c>
       <c r="Q32">
         <v>9248543695</v>
       </c>
-      <c r="R32" s="6" t="s">
+      <c r="R32" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S32" t="s">
@@ -4167,31 +4161,31 @@
       <c r="U32">
         <v>294943</v>
       </c>
-      <c r="V32" s="12">
+      <c r="V32" s="7">
         <v>12345678912</v>
       </c>
       <c r="W32">
         <v>1111111111111110</v>
       </c>
-      <c r="X32" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y32" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z32" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA32" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB32" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC32" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD32" s="13" t="s">
+      <c r="X32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y32" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB32" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC32" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD32" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE32" t="s">
@@ -4223,7 +4217,7 @@
       <c r="B33">
         <v>1111111111141</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>44238</v>
       </c>
       <c r="D33">
@@ -4235,10 +4229,10 @@
       <c r="F33" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H33" s="5">
+      <c r="G33" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H33" s="4">
         <v>44414</v>
       </c>
       <c r="I33" t="s">
@@ -4247,7 +4241,7 @@
       <c r="J33" t="s">
         <v>45</v>
       </c>
-      <c r="K33" s="11"/>
+      <c r="K33" s="6"/>
       <c r="L33" t="s">
         <v>37</v>
       </c>
@@ -4260,13 +4254,13 @@
       <c r="O33">
         <v>1</v>
       </c>
-      <c r="P33" s="5">
+      <c r="P33" s="4">
         <v>33938</v>
       </c>
       <c r="Q33">
         <v>9248543696</v>
       </c>
-      <c r="R33" s="6" t="s">
+      <c r="R33" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S33" t="s">
@@ -4278,31 +4272,31 @@
       <c r="U33">
         <v>294943</v>
       </c>
-      <c r="V33" s="12">
+      <c r="V33" s="7">
         <v>12345678912</v>
       </c>
       <c r="W33">
         <v>1111111111111110</v>
       </c>
-      <c r="X33" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y33" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z33" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA33" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB33" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC33" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD33" s="13" t="s">
+      <c r="X33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD33" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE33" t="s">
@@ -4334,7 +4328,7 @@
       <c r="B34">
         <v>1111111111142</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>44239</v>
       </c>
       <c r="D34">
@@ -4346,10 +4340,10 @@
       <c r="F34" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H34" s="5">
+      <c r="G34" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H34" s="4">
         <v>44414</v>
       </c>
       <c r="I34" t="s">
@@ -4358,7 +4352,7 @@
       <c r="J34" t="s">
         <v>45</v>
       </c>
-      <c r="K34" s="11"/>
+      <c r="K34" s="6"/>
       <c r="L34" t="s">
         <v>37</v>
       </c>
@@ -4371,13 +4365,13 @@
       <c r="O34">
         <v>1</v>
       </c>
-      <c r="P34" s="5">
+      <c r="P34" s="4">
         <v>33939</v>
       </c>
       <c r="Q34">
         <v>9248543697</v>
       </c>
-      <c r="R34" s="6" t="s">
+      <c r="R34" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S34" t="s">
@@ -4389,31 +4383,31 @@
       <c r="U34">
         <v>294943</v>
       </c>
-      <c r="V34" s="12">
+      <c r="V34" s="7">
         <v>12345678912</v>
       </c>
       <c r="W34">
         <v>1111111111111110</v>
       </c>
-      <c r="X34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y34" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z34" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA34" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB34" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC34" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD34" s="13" t="s">
+      <c r="X34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD34" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE34" t="s">
@@ -4445,7 +4439,7 @@
       <c r="B35">
         <v>1111111111143</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>44240</v>
       </c>
       <c r="D35">
@@ -4457,10 +4451,10 @@
       <c r="F35" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H35" s="5">
+      <c r="G35" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H35" s="4">
         <v>44414</v>
       </c>
       <c r="I35" t="s">
@@ -4469,7 +4463,7 @@
       <c r="J35" t="s">
         <v>45</v>
       </c>
-      <c r="K35" s="11"/>
+      <c r="K35" s="6"/>
       <c r="L35" t="s">
         <v>37</v>
       </c>
@@ -4482,13 +4476,13 @@
       <c r="O35">
         <v>1</v>
       </c>
-      <c r="P35" s="5">
+      <c r="P35" s="4">
         <v>33940</v>
       </c>
       <c r="Q35">
         <v>9248543698</v>
       </c>
-      <c r="R35" s="6" t="s">
+      <c r="R35" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S35" t="s">
@@ -4500,31 +4494,31 @@
       <c r="U35">
         <v>294943</v>
       </c>
-      <c r="V35" s="12">
+      <c r="V35" s="7">
         <v>12345678912</v>
       </c>
       <c r="W35">
         <v>1111111111111110</v>
       </c>
-      <c r="X35" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y35" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z35" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA35" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB35" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC35" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD35" s="13" t="s">
+      <c r="X35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC35" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD35" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE35" t="s">
@@ -4556,7 +4550,7 @@
       <c r="B36">
         <v>1111111111144</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>44241</v>
       </c>
       <c r="D36">
@@ -4568,10 +4562,10 @@
       <c r="F36" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H36" s="5">
+      <c r="G36" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H36" s="4">
         <v>44414</v>
       </c>
       <c r="I36" t="s">
@@ -4580,7 +4574,7 @@
       <c r="J36" t="s">
         <v>45</v>
       </c>
-      <c r="K36" s="11"/>
+      <c r="K36" s="6"/>
       <c r="L36" t="s">
         <v>37</v>
       </c>
@@ -4593,13 +4587,13 @@
       <c r="O36">
         <v>1</v>
       </c>
-      <c r="P36" s="5">
+      <c r="P36" s="4">
         <v>33941</v>
       </c>
       <c r="Q36">
         <v>9248543699</v>
       </c>
-      <c r="R36" s="6" t="s">
+      <c r="R36" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S36" t="s">
@@ -4611,31 +4605,31 @@
       <c r="U36">
         <v>294943</v>
       </c>
-      <c r="V36" s="12">
+      <c r="V36" s="7">
         <v>12345678912</v>
       </c>
       <c r="W36">
         <v>1111111111111110</v>
       </c>
-      <c r="X36" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y36" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z36" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA36" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB36" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC36" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD36" s="13" t="s">
+      <c r="X36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y36" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA36" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB36" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC36" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD36" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE36" t="s">
@@ -4667,7 +4661,7 @@
       <c r="B37">
         <v>1111111111145</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>44242</v>
       </c>
       <c r="D37">
@@ -4679,10 +4673,10 @@
       <c r="F37" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H37" s="5">
+      <c r="G37" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H37" s="4">
         <v>44414</v>
       </c>
       <c r="I37" t="s">
@@ -4691,7 +4685,7 @@
       <c r="J37" t="s">
         <v>45</v>
       </c>
-      <c r="K37" s="11"/>
+      <c r="K37" s="6"/>
       <c r="L37" t="s">
         <v>37</v>
       </c>
@@ -4704,13 +4698,13 @@
       <c r="O37">
         <v>1</v>
       </c>
-      <c r="P37" s="5">
+      <c r="P37" s="4">
         <v>33942</v>
       </c>
       <c r="Q37">
         <v>9248543700</v>
       </c>
-      <c r="R37" s="6" t="s">
+      <c r="R37" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S37" t="s">
@@ -4722,31 +4716,31 @@
       <c r="U37">
         <v>294943</v>
       </c>
-      <c r="V37" s="12">
+      <c r="V37" s="7">
         <v>12345678912</v>
       </c>
       <c r="W37">
         <v>1111111111111110</v>
       </c>
-      <c r="X37" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y37" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z37" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA37" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB37" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC37" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD37" s="13" t="s">
+      <c r="X37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA37" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD37" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE37" t="s">
@@ -4778,7 +4772,7 @@
       <c r="B38">
         <v>1111111111146</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>44243</v>
       </c>
       <c r="D38">
@@ -4790,10 +4784,10 @@
       <c r="F38" t="s">
         <v>36</v>
       </c>
-      <c r="G38" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H38" s="5">
+      <c r="G38" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H38" s="4">
         <v>44414</v>
       </c>
       <c r="I38" t="s">
@@ -4802,7 +4796,7 @@
       <c r="J38" t="s">
         <v>45</v>
       </c>
-      <c r="K38" s="11"/>
+      <c r="K38" s="6"/>
       <c r="L38" t="s">
         <v>37</v>
       </c>
@@ -4815,13 +4809,13 @@
       <c r="O38">
         <v>1</v>
       </c>
-      <c r="P38" s="5">
+      <c r="P38" s="4">
         <v>33943</v>
       </c>
       <c r="Q38">
         <v>9248543701</v>
       </c>
-      <c r="R38" s="6" t="s">
+      <c r="R38" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S38" t="s">
@@ -4833,31 +4827,31 @@
       <c r="U38">
         <v>294943</v>
       </c>
-      <c r="V38" s="12">
+      <c r="V38" s="7">
         <v>12345678912</v>
       </c>
       <c r="W38">
         <v>1111111111111110</v>
       </c>
-      <c r="X38" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y38" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z38" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA38" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB38" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC38" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD38" s="13" t="s">
+      <c r="X38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA38" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD38" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE38" t="s">
@@ -4889,7 +4883,7 @@
       <c r="B39">
         <v>1111111111147</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>44244</v>
       </c>
       <c r="D39">
@@ -4901,10 +4895,10 @@
       <c r="F39" t="s">
         <v>36</v>
       </c>
-      <c r="G39" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H39" s="5">
+      <c r="G39" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H39" s="4">
         <v>44414</v>
       </c>
       <c r="I39" t="s">
@@ -4913,7 +4907,7 @@
       <c r="J39" t="s">
         <v>45</v>
       </c>
-      <c r="K39" s="11"/>
+      <c r="K39" s="6"/>
       <c r="L39" t="s">
         <v>37</v>
       </c>
@@ -4926,13 +4920,13 @@
       <c r="O39">
         <v>1</v>
       </c>
-      <c r="P39" s="5">
+      <c r="P39" s="4">
         <v>33944</v>
       </c>
       <c r="Q39">
         <v>9248543702</v>
       </c>
-      <c r="R39" s="6" t="s">
+      <c r="R39" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S39" t="s">
@@ -4944,31 +4938,31 @@
       <c r="U39">
         <v>294943</v>
       </c>
-      <c r="V39" s="12">
+      <c r="V39" s="7">
         <v>12345678912</v>
       </c>
       <c r="W39">
         <v>1111111111111110</v>
       </c>
-      <c r="X39" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y39" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z39" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA39" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB39" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC39" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD39" s="13" t="s">
+      <c r="X39" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z39" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA39" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB39" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC39" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD39" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE39" t="s">
@@ -5000,7 +4994,7 @@
       <c r="B40">
         <v>1111111111148</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>44245</v>
       </c>
       <c r="D40">
@@ -5012,10 +5006,10 @@
       <c r="F40" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H40" s="5">
+      <c r="G40" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H40" s="4">
         <v>44414</v>
       </c>
       <c r="I40" t="s">
@@ -5024,7 +5018,7 @@
       <c r="J40" t="s">
         <v>45</v>
       </c>
-      <c r="K40" s="11"/>
+      <c r="K40" s="6"/>
       <c r="L40" t="s">
         <v>37</v>
       </c>
@@ -5037,13 +5031,13 @@
       <c r="O40">
         <v>1</v>
       </c>
-      <c r="P40" s="5">
+      <c r="P40" s="4">
         <v>33945</v>
       </c>
       <c r="Q40">
         <v>9248543703</v>
       </c>
-      <c r="R40" s="6" t="s">
+      <c r="R40" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S40" t="s">
@@ -5055,31 +5049,31 @@
       <c r="U40">
         <v>294943</v>
       </c>
-      <c r="V40" s="12">
+      <c r="V40" s="7">
         <v>12345678912</v>
       </c>
       <c r="W40">
         <v>1111111111111110</v>
       </c>
-      <c r="X40" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y40" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z40" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA40" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB40" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC40" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD40" s="13" t="s">
+      <c r="X40" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y40" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z40" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB40" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD40" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE40" t="s">
@@ -5111,7 +5105,7 @@
       <c r="B41">
         <v>1111111111149</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>44246</v>
       </c>
       <c r="D41">
@@ -5123,10 +5117,10 @@
       <c r="F41" t="s">
         <v>36</v>
       </c>
-      <c r="G41" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H41" s="5">
+      <c r="G41" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H41" s="4">
         <v>44414</v>
       </c>
       <c r="I41" t="s">
@@ -5135,7 +5129,7 @@
       <c r="J41" t="s">
         <v>45</v>
       </c>
-      <c r="K41" s="11"/>
+      <c r="K41" s="6"/>
       <c r="L41" t="s">
         <v>37</v>
       </c>
@@ -5148,13 +5142,13 @@
       <c r="O41">
         <v>1</v>
       </c>
-      <c r="P41" s="5">
+      <c r="P41" s="4">
         <v>33946</v>
       </c>
       <c r="Q41">
         <v>9248543704</v>
       </c>
-      <c r="R41" s="6" t="s">
+      <c r="R41" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S41" t="s">
@@ -5166,31 +5160,31 @@
       <c r="U41">
         <v>294943</v>
       </c>
-      <c r="V41" s="12">
+      <c r="V41" s="7">
         <v>12345678912</v>
       </c>
       <c r="W41">
         <v>1111111111111110</v>
       </c>
-      <c r="X41" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y41" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z41" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA41" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB41" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC41" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD41" s="13" t="s">
+      <c r="X41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA41" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC41" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD41" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE41" t="s">
@@ -5222,7 +5216,7 @@
       <c r="B42">
         <v>1111111111150</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>44247</v>
       </c>
       <c r="D42">
@@ -5234,10 +5228,10 @@
       <c r="F42" t="s">
         <v>36</v>
       </c>
-      <c r="G42" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H42" s="5">
+      <c r="G42" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H42" s="4">
         <v>44414</v>
       </c>
       <c r="I42" t="s">
@@ -5246,7 +5240,7 @@
       <c r="J42" t="s">
         <v>45</v>
       </c>
-      <c r="K42" s="11"/>
+      <c r="K42" s="6"/>
       <c r="L42" t="s">
         <v>37</v>
       </c>
@@ -5259,13 +5253,13 @@
       <c r="O42">
         <v>1</v>
       </c>
-      <c r="P42" s="5">
+      <c r="P42" s="4">
         <v>33947</v>
       </c>
       <c r="Q42">
         <v>9248543705</v>
       </c>
-      <c r="R42" s="6" t="s">
+      <c r="R42" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S42" t="s">
@@ -5277,31 +5271,31 @@
       <c r="U42">
         <v>294943</v>
       </c>
-      <c r="V42" s="12">
+      <c r="V42" s="7">
         <v>12345678912</v>
       </c>
       <c r="W42">
         <v>1111111111111110</v>
       </c>
-      <c r="X42" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y42" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z42" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA42" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB42" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC42" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD42" s="13" t="s">
+      <c r="X42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y42" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z42" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB42" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC42" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD42" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE42" t="s">
@@ -5333,7 +5327,7 @@
       <c r="B43">
         <v>1111111111151</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>44248</v>
       </c>
       <c r="D43">
@@ -5345,10 +5339,10 @@
       <c r="F43" t="s">
         <v>36</v>
       </c>
-      <c r="G43" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H43" s="5">
+      <c r="G43" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H43" s="4">
         <v>44414</v>
       </c>
       <c r="I43" t="s">
@@ -5357,7 +5351,7 @@
       <c r="J43" t="s">
         <v>45</v>
       </c>
-      <c r="K43" s="11"/>
+      <c r="K43" s="6"/>
       <c r="L43" t="s">
         <v>37</v>
       </c>
@@ -5370,13 +5364,13 @@
       <c r="O43">
         <v>1</v>
       </c>
-      <c r="P43" s="5">
+      <c r="P43" s="4">
         <v>33948</v>
       </c>
       <c r="Q43">
         <v>9248543706</v>
       </c>
-      <c r="R43" s="6" t="s">
+      <c r="R43" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S43" t="s">
@@ -5388,31 +5382,31 @@
       <c r="U43">
         <v>294943</v>
       </c>
-      <c r="V43" s="12">
+      <c r="V43" s="7">
         <v>12345678912</v>
       </c>
       <c r="W43">
         <v>1111111111111110</v>
       </c>
-      <c r="X43" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y43" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z43" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA43" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB43" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC43" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD43" s="13" t="s">
+      <c r="X43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z43" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA43" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB43" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD43" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE43" t="s">
@@ -5444,7 +5438,7 @@
       <c r="B44">
         <v>1111111111152</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>44249</v>
       </c>
       <c r="D44">
@@ -5456,10 +5450,10 @@
       <c r="F44" t="s">
         <v>36</v>
       </c>
-      <c r="G44" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H44" s="5">
+      <c r="G44" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H44" s="4">
         <v>44414</v>
       </c>
       <c r="I44" t="s">
@@ -5468,7 +5462,7 @@
       <c r="J44" t="s">
         <v>45</v>
       </c>
-      <c r="K44" s="11"/>
+      <c r="K44" s="6"/>
       <c r="L44" t="s">
         <v>37</v>
       </c>
@@ -5481,13 +5475,13 @@
       <c r="O44">
         <v>1</v>
       </c>
-      <c r="P44" s="5">
+      <c r="P44" s="4">
         <v>33949</v>
       </c>
       <c r="Q44">
         <v>9248543707</v>
       </c>
-      <c r="R44" s="6" t="s">
+      <c r="R44" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S44" t="s">
@@ -5499,31 +5493,31 @@
       <c r="U44">
         <v>294943</v>
       </c>
-      <c r="V44" s="12">
+      <c r="V44" s="7">
         <v>12345678912</v>
       </c>
       <c r="W44">
         <v>1111111111111110</v>
       </c>
-      <c r="X44" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y44" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z44" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA44" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB44" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC44" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD44" s="13" t="s">
+      <c r="X44" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y44" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA44" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB44" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC44" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD44" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE44" t="s">
@@ -5555,7 +5549,7 @@
       <c r="B45">
         <v>1111111111153</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>44250</v>
       </c>
       <c r="D45">
@@ -5567,10 +5561,10 @@
       <c r="F45" t="s">
         <v>36</v>
       </c>
-      <c r="G45" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H45" s="5">
+      <c r="G45" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H45" s="4">
         <v>44414</v>
       </c>
       <c r="I45" t="s">
@@ -5579,7 +5573,7 @@
       <c r="J45" t="s">
         <v>45</v>
       </c>
-      <c r="K45" s="11"/>
+      <c r="K45" s="6"/>
       <c r="L45" t="s">
         <v>37</v>
       </c>
@@ -5592,13 +5586,13 @@
       <c r="O45">
         <v>1</v>
       </c>
-      <c r="P45" s="5">
+      <c r="P45" s="4">
         <v>33950</v>
       </c>
       <c r="Q45">
         <v>9248543708</v>
       </c>
-      <c r="R45" s="6" t="s">
+      <c r="R45" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S45" t="s">
@@ -5610,31 +5604,31 @@
       <c r="U45">
         <v>294943</v>
       </c>
-      <c r="V45" s="12">
+      <c r="V45" s="7">
         <v>12345678912</v>
       </c>
       <c r="W45">
         <v>1111111111111110</v>
       </c>
-      <c r="X45" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y45" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z45" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA45" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB45" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC45" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD45" s="13" t="s">
+      <c r="X45" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z45" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA45" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB45" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC45" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD45" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE45" t="s">
@@ -5666,7 +5660,7 @@
       <c r="B46">
         <v>1111111111154</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>44251</v>
       </c>
       <c r="D46">
@@ -5678,10 +5672,10 @@
       <c r="F46" t="s">
         <v>36</v>
       </c>
-      <c r="G46" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H46" s="5">
+      <c r="G46" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H46" s="4">
         <v>44414</v>
       </c>
       <c r="I46" t="s">
@@ -5690,7 +5684,7 @@
       <c r="J46" t="s">
         <v>45</v>
       </c>
-      <c r="K46" s="11"/>
+      <c r="K46" s="6"/>
       <c r="L46" t="s">
         <v>37</v>
       </c>
@@ -5703,13 +5697,13 @@
       <c r="O46">
         <v>1</v>
       </c>
-      <c r="P46" s="5">
+      <c r="P46" s="4">
         <v>33951</v>
       </c>
       <c r="Q46">
         <v>9248543709</v>
       </c>
-      <c r="R46" s="6" t="s">
+      <c r="R46" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S46" t="s">
@@ -5721,31 +5715,31 @@
       <c r="U46">
         <v>294943</v>
       </c>
-      <c r="V46" s="12">
+      <c r="V46" s="7">
         <v>12345678912</v>
       </c>
       <c r="W46">
         <v>1111111111111110</v>
       </c>
-      <c r="X46" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y46" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z46" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA46" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB46" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC46" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD46" s="13" t="s">
+      <c r="X46" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y46" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z46" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA46" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB46" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC46" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD46" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE46" t="s">
@@ -5777,7 +5771,7 @@
       <c r="B47">
         <v>1111111111155</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>44252</v>
       </c>
       <c r="D47">
@@ -5789,10 +5783,10 @@
       <c r="F47" t="s">
         <v>36</v>
       </c>
-      <c r="G47" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H47" s="5">
+      <c r="G47" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H47" s="4">
         <v>44414</v>
       </c>
       <c r="I47" t="s">
@@ -5801,7 +5795,7 @@
       <c r="J47" t="s">
         <v>45</v>
       </c>
-      <c r="K47" s="11"/>
+      <c r="K47" s="6"/>
       <c r="L47" t="s">
         <v>37</v>
       </c>
@@ -5814,13 +5808,13 @@
       <c r="O47">
         <v>1</v>
       </c>
-      <c r="P47" s="5">
+      <c r="P47" s="4">
         <v>33952</v>
       </c>
       <c r="Q47">
         <v>9248543710</v>
       </c>
-      <c r="R47" s="6" t="s">
+      <c r="R47" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S47" t="s">
@@ -5832,31 +5826,31 @@
       <c r="U47">
         <v>294943</v>
       </c>
-      <c r="V47" s="12">
+      <c r="V47" s="7">
         <v>12345678912</v>
       </c>
       <c r="W47">
         <v>1111111111111110</v>
       </c>
-      <c r="X47" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y47" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z47" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA47" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB47" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC47" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD47" s="13" t="s">
+      <c r="X47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y47" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z47" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA47" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB47" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC47" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD47" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE47" t="s">
@@ -5888,7 +5882,7 @@
       <c r="B48">
         <v>1111111111156</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <v>44253</v>
       </c>
       <c r="D48">
@@ -5900,10 +5894,10 @@
       <c r="F48" t="s">
         <v>36</v>
       </c>
-      <c r="G48" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H48" s="5">
+      <c r="G48" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H48" s="4">
         <v>44414</v>
       </c>
       <c r="I48" t="s">
@@ -5912,7 +5906,7 @@
       <c r="J48" t="s">
         <v>45</v>
       </c>
-      <c r="K48" s="11"/>
+      <c r="K48" s="6"/>
       <c r="L48" t="s">
         <v>37</v>
       </c>
@@ -5925,13 +5919,13 @@
       <c r="O48">
         <v>1</v>
       </c>
-      <c r="P48" s="5">
+      <c r="P48" s="4">
         <v>33953</v>
       </c>
       <c r="Q48">
         <v>9248543711</v>
       </c>
-      <c r="R48" s="6" t="s">
+      <c r="R48" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S48" t="s">
@@ -5943,31 +5937,31 @@
       <c r="U48">
         <v>294943</v>
       </c>
-      <c r="V48" s="12">
+      <c r="V48" s="7">
         <v>12345678912</v>
       </c>
       <c r="W48">
         <v>1111111111111110</v>
       </c>
-      <c r="X48" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y48" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z48" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA48" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB48" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC48" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD48" s="13" t="s">
+      <c r="X48" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y48" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z48" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA48" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB48" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC48" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD48" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE48" t="s">
@@ -5999,7 +5993,7 @@
       <c r="B49">
         <v>1111111111157</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <v>44254</v>
       </c>
       <c r="D49">
@@ -6011,10 +6005,10 @@
       <c r="F49" t="s">
         <v>36</v>
       </c>
-      <c r="G49" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H49" s="5">
+      <c r="G49" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H49" s="4">
         <v>44414</v>
       </c>
       <c r="I49" t="s">
@@ -6023,7 +6017,7 @@
       <c r="J49" t="s">
         <v>45</v>
       </c>
-      <c r="K49" s="11"/>
+      <c r="K49" s="6"/>
       <c r="L49" t="s">
         <v>37</v>
       </c>
@@ -6036,13 +6030,13 @@
       <c r="O49">
         <v>1</v>
       </c>
-      <c r="P49" s="5">
+      <c r="P49" s="4">
         <v>33954</v>
       </c>
       <c r="Q49">
         <v>9248543712</v>
       </c>
-      <c r="R49" s="6" t="s">
+      <c r="R49" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S49" t="s">
@@ -6054,31 +6048,31 @@
       <c r="U49">
         <v>294943</v>
       </c>
-      <c r="V49" s="12">
+      <c r="V49" s="7">
         <v>12345678912</v>
       </c>
       <c r="W49">
         <v>1111111111111110</v>
       </c>
-      <c r="X49" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y49" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z49" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA49" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB49" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC49" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD49" s="13" t="s">
+      <c r="X49" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y49" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z49" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA49" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB49" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC49" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD49" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE49" t="s">
@@ -6110,7 +6104,7 @@
       <c r="B50">
         <v>1111111111158</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4">
         <v>44255</v>
       </c>
       <c r="D50">
@@ -6122,10 +6116,10 @@
       <c r="F50" t="s">
         <v>36</v>
       </c>
-      <c r="G50" s="5">
-        <v>44414</v>
-      </c>
-      <c r="H50" s="5">
+      <c r="G50" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H50" s="4">
         <v>44414</v>
       </c>
       <c r="I50" t="s">
@@ -6134,7 +6128,7 @@
       <c r="J50" t="s">
         <v>45</v>
       </c>
-      <c r="K50" s="11"/>
+      <c r="K50" s="6"/>
       <c r="L50" t="s">
         <v>37</v>
       </c>
@@ -6147,13 +6141,13 @@
       <c r="O50">
         <v>1</v>
       </c>
-      <c r="P50" s="5">
+      <c r="P50" s="4">
         <v>33955</v>
       </c>
       <c r="Q50">
         <v>9248543713</v>
       </c>
-      <c r="R50" s="6" t="s">
+      <c r="R50" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S50" t="s">
@@ -6165,31 +6159,31 @@
       <c r="U50">
         <v>294943</v>
       </c>
-      <c r="V50" s="12">
+      <c r="V50" s="7">
         <v>12345678912</v>
       </c>
       <c r="W50">
         <v>1111111111111110</v>
       </c>
-      <c r="X50" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y50" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z50" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA50" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB50" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC50" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD50" s="13" t="s">
+      <c r="X50" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y50" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z50" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA50" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB50" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC50" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD50" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AE50" t="s">
@@ -6212,6 +6206,228 @@
       </c>
       <c r="AK50" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51">
+        <v>1111111111158</v>
+      </c>
+      <c r="C51" s="4">
+        <v>44255</v>
+      </c>
+      <c r="D51">
+        <v>13048</v>
+      </c>
+      <c r="E51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H51" s="4">
+        <v>44414</v>
+      </c>
+      <c r="I51" t="s">
+        <v>41</v>
+      </c>
+      <c r="J51" t="s">
+        <v>45</v>
+      </c>
+      <c r="K51" s="6"/>
+      <c r="L51" t="s">
+        <v>37</v>
+      </c>
+      <c r="M51" t="s">
+        <v>38</v>
+      </c>
+      <c r="N51" t="s">
+        <v>39</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51" s="4">
+        <v>33955</v>
+      </c>
+      <c r="Q51">
+        <v>9248543713</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S51" t="s">
+        <v>49</v>
+      </c>
+      <c r="T51">
+        <v>4412</v>
+      </c>
+      <c r="U51">
+        <v>294943</v>
+      </c>
+      <c r="V51" s="7">
+        <v>12345678912</v>
+      </c>
+      <c r="W51">
+        <v>1111111111111110</v>
+      </c>
+      <c r="X51" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y51" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z51" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA51" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB51" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC51" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD51" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52">
+        <v>1111111111111</v>
+      </c>
+      <c r="C52" s="4">
+        <v>44208</v>
+      </c>
+      <c r="D52">
+        <v>13001</v>
+      </c>
+      <c r="E52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="4">
+        <v>44414</v>
+      </c>
+      <c r="H52" s="4">
+        <v>44414</v>
+      </c>
+      <c r="I52" t="s">
+        <v>41</v>
+      </c>
+      <c r="J52" t="s">
+        <v>45</v>
+      </c>
+      <c r="K52" s="6"/>
+      <c r="L52" t="s">
+        <v>37</v>
+      </c>
+      <c r="M52" t="s">
+        <v>38</v>
+      </c>
+      <c r="N52" t="s">
+        <v>39</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52" s="4">
+        <v>33908</v>
+      </c>
+      <c r="Q52">
+        <v>9248543666</v>
+      </c>
+      <c r="R52" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S52" t="s">
+        <v>49</v>
+      </c>
+      <c r="T52">
+        <v>4412</v>
+      </c>
+      <c r="U52">
+        <v>294943</v>
+      </c>
+      <c r="V52" s="7">
+        <v>12345678912</v>
+      </c>
+      <c r="W52">
+        <v>1111111111111110</v>
+      </c>
+      <c r="X52" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y52" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z52" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA52" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB52" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC52" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD52" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE52" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF52" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG52" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH52" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI52" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ52" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK52" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -6222,7 +6438,7 @@
     <mergeCell ref="X1:AD1"/>
     <mergeCell ref="AE1:AK1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I3:I1048576" xr:uid="{B2185E81-1AED-46C6-8F3F-15689552BED2}">
       <formula1>result</formula1>
@@ -6304,9 +6520,11 @@
     <hyperlink ref="R48" r:id="rId46" xr:uid="{C2C47A6F-D70E-4379-890B-ECAF3841BB51}"/>
     <hyperlink ref="R49" r:id="rId47" xr:uid="{51C02767-69A3-474A-939F-FC8D4C15D130}"/>
     <hyperlink ref="R50" r:id="rId48" xr:uid="{847FF794-5B1A-4F97-BBF4-E783719E951A}"/>
+    <hyperlink ref="R51" r:id="rId49" xr:uid="{95D45FC3-04BF-4C0B-BB26-4EC37AFBC797}"/>
+    <hyperlink ref="R52" r:id="rId50" xr:uid="{E3200E1E-2434-473F-97AD-DEB9B32A643D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId49"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId51"/>
 </worksheet>
 </file>
 
